--- a/Annotations/annotations_AR.xlsx
+++ b/Annotations/annotations_AR.xlsx
@@ -404,16 +404,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>ID</v>
+        <v>id</v>
       </c>
       <c r="B1" t="str">
-        <v>Premise</v>
+        <v>premise</v>
       </c>
       <c r="C1" t="str">
-        <v>Hypothesis</v>
+        <v>hypothesis</v>
       </c>
       <c r="D1" t="str">
-        <v>Relation</v>
+        <v>relation</v>
       </c>
     </row>
     <row r="2">
@@ -427,7 +427,7 @@
         <v>سيتم الإفراج عن المتهمين إذا كانوا أبرياء.</v>
       </c>
       <c r="D2" t="str">
-        <v>Entailment</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="3">

--- a/Annotations/annotations_AR.xlsx
+++ b/Annotations/annotations_AR.xlsx
@@ -427,7 +427,7 @@
         <v>سيتم الإفراج عن المتهمين إذا كانوا أبرياء.</v>
       </c>
       <c r="D2" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="3">
@@ -441,7 +441,7 @@
         <v>سوف يبنون فقط لفيرمي لاب.</v>
       </c>
       <c r="D3" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="4">
@@ -455,7 +455,7 @@
         <v>إذا أخذت السنة التي وُلِد فيها روبن ريمبو وعكست الأرقام، ستحصل على 4691.</v>
       </c>
       <c r="D4" t="str">
-        <v>Neutral</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>أكثر لدغات الحشرات شيوعًا في المنزل هي لدغة الحشرة الحمراء.</v>
       </c>
       <c r="D5" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="6">
@@ -483,7 +483,7 @@
         <v>ديون العالم الثالث لها xx</v>
       </c>
       <c r="D6" t="str">
-        <v>Neutral</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         <v>تنطبق فقرة الضرورة والملاءمة بشكل خاص على حقوق الطبع والنشر المنتهية.</v>
       </c>
       <c r="D7" t="str">
-        <v>Contradiction</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="8">
@@ -511,7 +511,7 @@
         <v>إيفيلاند من بلدة مقاطعة أورانج.</v>
       </c>
       <c r="D8" t="str">
-        <v>Entailment</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="9">
@@ -525,7 +525,7 @@
         <v>السيناتور غيتير سيترشح للرئاسة.</v>
       </c>
       <c r="D9" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="10">
@@ -539,7 +539,7 @@
         <v>الرجل والمرأة من شرق تكساس في حالة عقلية سليمة</v>
       </c>
       <c r="D10" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="11">
@@ -553,7 +553,7 @@
         <v>عُقد الاجتماع في 1 أكتوبر 1998.</v>
       </c>
       <c r="D11" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="12">
@@ -567,7 +567,7 @@
         <v>تمت تهديدات في وقت معين من التاريخ بشأن عدم اليقين من تنفيذ عقوبات معينة. ستجعل هذه العقوبات كيانًا ما غاضبًا للغاية.</v>
       </c>
       <c r="D12" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="13">
@@ -581,7 +581,7 @@
         <v>يمكن للبرنامج أن يعمل على إصدار Fermi Linux LTS المقابل إذا لم يكن معتمدًا من RedHat Enterprise.</v>
       </c>
       <c r="D13" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="14">
@@ -595,7 +595,7 @@
         <v>إذا لم تستخدم المنطقة أبدًا، فسيكون كافيًا مرتين في الأسبوع.</v>
       </c>
       <c r="D14" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="15">
@@ -609,7 +609,7 @@
         <v>اكتمل بناء المنزل في الأربعينيات.</v>
       </c>
       <c r="D15" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="16">
@@ -623,7 +623,7 @@
         <v>"هم" المشار إليهم في هذا السياق قد انحازوا تمامًا للادعاء.</v>
       </c>
       <c r="D16" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="17">
@@ -637,7 +637,7 @@
         <v>يقول المقال أن تستخدم معظم البنزين في السيارة.</v>
       </c>
       <c r="D17" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="18">
@@ -651,7 +651,7 @@
         <v>الرجلان في السجن لمدة 20 عامًا.</v>
       </c>
       <c r="D18" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="19">
@@ -665,7 +665,7 @@
         <v>من المفيد أن تعرف إذا كان خصمك قد شرب كثيرًا.</v>
       </c>
       <c r="D19" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="20">
@@ -679,7 +679,7 @@
         <v>مايكل جاكسون ميت</v>
       </c>
       <c r="D20" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="21">
@@ -693,7 +693,7 @@
         <v>لم يتم التركيز على التعلم المبكر.</v>
       </c>
       <c r="D21" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="22">
@@ -707,7 +707,7 @@
         <v>انزل عند محطة حديقة الفولكلور الوطنية وامشِ من هناك إلى المدخل الرئيسي.</v>
       </c>
       <c r="D22" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="23">
@@ -721,7 +721,7 @@
         <v>استمر إطلاق النار حتى صباح يوم الثلاثاء</v>
       </c>
       <c r="D23" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="24">
@@ -735,7 +735,7 @@
         <v>كانت الإصلاحات تهدف إلى توحيد قواعد الإملاء.</v>
       </c>
       <c r="D24" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="25">
@@ -749,7 +749,7 @@
         <v>شكل خرطومك سيخبرك كيف تم تلفه.</v>
       </c>
       <c r="D25" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="26">
@@ -763,7 +763,7 @@
         <v>يحب الناس النوم في غرفة باردة</v>
       </c>
       <c r="D26" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="27">
@@ -777,7 +777,7 @@
         <v>إذا كنت معتادًا على مشاهدة SportsCenter في الساعة 12 ظهرًا يوم الأربعاء، فهناك احتمال أنك تعرف من هو كريس مكيندري.</v>
       </c>
       <c r="D27" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="28">
@@ -805,7 +805,7 @@
         <v>كان العميل جزءًا من الجيش</v>
       </c>
       <c r="D29" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="30">
@@ -819,7 +819,7 @@
         <v>يمكن لأي شخص أن يزرع البنفسج الأفريقي إذا كان لديه الإرادة.</v>
       </c>
       <c r="D30" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="31">
@@ -833,7 +833,7 @@
         <v>اذهب إلى النوم فقط عندما يكون الجو بارداً</v>
       </c>
       <c r="D31" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="32">
@@ -847,7 +847,7 @@
         <v>سيتم تحقيق السلام الدائم</v>
       </c>
       <c r="D32" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="33">
@@ -861,7 +861,7 @@
         <v>سوف يؤثر تغيير التوقيت الصيفي على ممارستك، خذ ذلك في الاعتبار.</v>
       </c>
       <c r="D33" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="34">

--- a/Annotations/annotations_AR.xlsx
+++ b/Annotations/annotations_AR.xlsx
@@ -1869,7 +1869,7 @@
         <v>الإجهاض غير مريح.</v>
       </c>
       <c r="D105" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="106">
@@ -1883,7 +1883,7 @@
         <v>بعض الناس يهتمون إذا كان القضاة صادقين.</v>
       </c>
       <c r="D106" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="107">
@@ -1897,7 +1897,7 @@
         <v>الإجهاض الجزئي، والإجهاض بالتوسيع والكشط، كلها نفس الشيء.</v>
       </c>
       <c r="D107" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="108">
@@ -1911,7 +1911,7 @@
         <v>الزوجان يصوران فيديو مثلي، لم يلتقيا من قبل.</v>
       </c>
       <c r="D108" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="109">
@@ -1925,7 +1925,7 @@
         <v>بدت وكأنها ستفشل.</v>
       </c>
       <c r="D109" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="110">
@@ -1939,7 +1939,7 @@
         <v>الدورة التكميلية إلزامية</v>
       </c>
       <c r="D110" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="111">
@@ -1953,7 +1953,7 @@
         <v>السبب موجود داخل الإجابة.</v>
       </c>
       <c r="D111" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="112">
@@ -1967,7 +1967,7 @@
         <v>لا يوجد عنف في الدراما العادية هو أمر خاطئ.</v>
       </c>
       <c r="D112" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="113">
@@ -1981,7 +1981,7 @@
         <v>يُنظر إلى عشاق الوسائط على أنهم عصر جديد.</v>
       </c>
       <c r="D113" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="114">
@@ -1995,7 +1995,7 @@
         <v>كانوا بالتأكيد سيشترونه.</v>
       </c>
       <c r="D114" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="115">
@@ -2009,7 +2009,7 @@
         <v>وول ستريت وعشاق الإعلام لديهم الكثير من القواسم المشتركة.</v>
       </c>
       <c r="D115" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="116">
@@ -2023,7 +2023,7 @@
         <v>غياب المرضى الذين يقاضون شركات التأمين سيكون خطوة في الاتجاه الصحيح.</v>
       </c>
       <c r="D116" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="117">
@@ -2037,7 +2037,7 @@
         <v>يعتزم أن يصبح تهديدًا جادًا</v>
       </c>
       <c r="D117" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="118">
@@ -2051,7 +2051,7 @@
         <v>القصة مضحكة للغاية.</v>
       </c>
       <c r="D118" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="119">
@@ -2065,7 +2065,7 @@
         <v>الحكومة لا تتحكم في الحظر.</v>
       </c>
       <c r="D119" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="120">
@@ -2079,7 +2079,7 @@
         <v>إذا كان لديك طفل مؤمن عليه بالفعل، فلن يغطيهم البرنامج.</v>
       </c>
       <c r="D120" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="121">
@@ -2093,7 +2093,7 @@
         <v>لا أحد سيخلص إلى أنها تحفة فنية من تلقاء نفسه.</v>
       </c>
       <c r="D121" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="122">
@@ -2107,7 +2107,7 @@
         <v>لو كانت هناك عواقب شديدة من القانون فقط.</v>
       </c>
       <c r="D122" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="123">
@@ -2121,7 +2121,7 @@
         <v>ستظل نقاط التقاطع مع المحور Y غير متغيرة بشكل عام حتى لو حدث تغيير في البيانات على المحور العمودي.</v>
       </c>
       <c r="D123" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="124">
@@ -2135,7 +2135,7 @@
         <v>يقول المحافظون إن شهادة الزور هي شهادة زور ولا يمكن لأحد الإفلات من العقاب.</v>
       </c>
       <c r="D124" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="125">
@@ -2149,7 +2149,7 @@
         <v>وجد شخصًا مستعدًا للعمل في تلك الساعات بعد شهرين من البحث.</v>
       </c>
       <c r="D125" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="126">
@@ -2163,7 +2163,7 @@
         <v>التغيير سيوفر حمايته الخاصة.</v>
       </c>
       <c r="D126" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="127">
@@ -2177,7 +2177,7 @@
         <v>ركوب الدراجات في المنطقة الحضرية الفرنسية آمن ومريح.</v>
       </c>
       <c r="D127" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="128">
@@ -2191,7 +2191,7 @@
         <v>من غير الواضح ما إذا كان الإساءة تحدث بشكل أكثر تكرارًا، أو أنها تُبلغ عنها بشكل أكثر تكرارًا.</v>
       </c>
       <c r="D128" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="129">
@@ -2205,7 +2205,7 @@
         <v>المتدرب لا يتقاضى أجرًا.</v>
       </c>
       <c r="D129" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="130">
@@ -2219,7 +2219,7 @@
         <v>إنه ليس صديقًا جيدًا إذا قال لك أنك ستحب "هابي تكساس"، كتب المقال.</v>
       </c>
       <c r="D130" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="131">
@@ -2233,7 +2233,7 @@
         <v>سأذهب بين الحين والآخر عندما أشعر بذلك.</v>
       </c>
       <c r="D131" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="132">
@@ -2247,7 +2247,7 @@
         <v>حتى لو كنت تتقاضى أموالاً، فإن الامتثال للقواعد يمكن أن يكون ممكنًا.</v>
       </c>
       <c r="D132" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="133">
@@ -2275,7 +2275,7 @@
         <v>من الصعب أن نحدد في البداية ما إذا كان فريد جيدًا.</v>
       </c>
       <c r="D134" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="135">
@@ -2289,7 +2289,7 @@
         <v>قال الموظف إنه إذا اخترت النقش، فسوف يمنحني خصمًا بنسبة 20%.</v>
       </c>
       <c r="D135" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="136">
@@ -2303,7 +2303,7 @@
         <v>إذا صرخ الجمهور "أولي"، فهذا يعني أن المصارع يقوم بأداء سيء.</v>
       </c>
       <c r="D136" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="137">
@@ -2317,7 +2317,7 @@
         <v>ما فعلناه بالسكان الأصليين يجعل كاستر يبدو لطيفًا.</v>
       </c>
       <c r="D137" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="138">
@@ -2331,7 +2331,7 @@
         <v>يحب الكثير من الناس شراء سمكة المنفوخة المحشوة كتذكار تعمل كظل مصباح.</v>
       </c>
       <c r="D138" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="139">
@@ -2359,7 +2359,7 @@
         <v>تم القبض علي قبل أن أنهيه.</v>
       </c>
       <c r="D140" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="141">
@@ -2373,7 +2373,7 @@
         <v>لديه وصول إلى جميع المعلومات وسيتصرف بسرعة إذا تم تجاهله.</v>
       </c>
       <c r="D141" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="142">
@@ -2387,7 +2387,7 @@
         <v>سوف يحب ذلك إذا احترمنا إرثه.</v>
       </c>
       <c r="D142" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="143">
@@ -2401,7 +2401,7 @@
         <v>خلف دار الأوبرا يوجد اثنان من أشهر المتاجر الكبرى إذا استطعت العثور عليهما.</v>
       </c>
       <c r="D143" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="144">
@@ -2415,7 +2415,7 @@
         <v>أنت مدرك أنك لا تصوت لأي مرشح.</v>
       </c>
       <c r="D144" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="145">
@@ -2429,7 +2429,7 @@
         <v>الجميع يحصل على مساعدة من الوالدين للالتحاق بالجامعة.</v>
       </c>
       <c r="D145" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="146">
@@ -2443,7 +2443,7 @@
         <v>الروابط في المقال تحتوي على مواد مختلفة عن الروابط في أسفل المقال.</v>
       </c>
       <c r="D146" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="147">
@@ -2457,7 +2457,7 @@
         <v>احتفظ صانع الأحذية الرئيسي بعلاقة مهنية مع مساعده.</v>
       </c>
       <c r="D147" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="148">
@@ -2471,7 +2471,7 @@
         <v>إذا كنت محظوظًا، فلن يحدث ذلك.</v>
       </c>
       <c r="D148" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="149">
@@ -2485,7 +2485,7 @@
         <v>إذا كنت سأكون صادقًا، فلن ينقذ أصابعك دائمًا.</v>
       </c>
       <c r="D149" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="150">
@@ -2499,7 +2499,7 @@
         <v>لست مطالبًا بالتشاور مع LSC إذا كانت هناك مشاكل.</v>
       </c>
       <c r="D150" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="151">
@@ -2513,7 +2513,7 @@
         <v>أتوقع أن تكون النتائج مختلفة بشكل كبير.</v>
       </c>
       <c r="D151" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="152">

--- a/Annotations/annotations_AR.xlsx
+++ b/Annotations/annotations_AR.xlsx
@@ -875,7 +875,7 @@
         <v>يمكن أن يعاني البالغون من اضطراب فرط الحركة وتشتت الانتباه.</v>
       </c>
       <c r="D34" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         <v>يوفر مشروع القانون C-3 استثناءً يخول القضاة أخذ عينات.</v>
       </c>
       <c r="D35" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="36">
@@ -903,7 +903,7 @@
         <v>إذا توقفت عن تدخين منتجات التبغ، فلن تصاب بسرطان الرئة.</v>
       </c>
       <c r="D36" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="37">
@@ -917,7 +917,7 @@
         <v>كان الموظفون مترددين في تقديم الإفادات.</v>
       </c>
       <c r="D37" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="38">
@@ -931,7 +931,7 @@
         <v>دالاي لاما هو قائد يحب السلام</v>
       </c>
       <c r="D38" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="39">
@@ -945,7 +945,7 @@
         <v>جونغنو لديها أسطول من الحافلات</v>
       </c>
       <c r="D39" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="40">
@@ -959,7 +959,7 @@
         <v>هذا الشخص يدرس قانون حقوق الطبع والنشر.</v>
       </c>
       <c r="D40" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="41">
@@ -973,7 +973,7 @@
         <v>لا تأخذ فيتامين E.</v>
       </c>
       <c r="D41" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="42">
@@ -987,7 +987,7 @@
         <v>الأوروبيون يغيرون تفاصيل حقوق الطبع والنشر</v>
       </c>
       <c r="D42" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="43">
@@ -1001,7 +1001,7 @@
         <v>ميكس بن للإلكترونيات تصنع الإلكترونيات</v>
       </c>
       <c r="D43" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="44">
@@ -1015,7 +1015,7 @@
         <v>لقد قطعت الطب شوطًا طويلًا منذ أن بدأ لأول مرة في الأمريكتين.</v>
       </c>
       <c r="D44" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="45">
@@ -1029,7 +1029,7 @@
         <v>البيان يذكر أشخاصًا تبدأ أسماؤهم بحرف M و F.</v>
       </c>
       <c r="D45" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="46">
@@ -1057,7 +1057,7 @@
         <v>قلبك يتحكم في ساعة جسمك.</v>
       </c>
       <c r="D47" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="48">
@@ -1071,7 +1071,7 @@
         <v>هناك فقرة أخرى</v>
       </c>
       <c r="D48" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="49">
@@ -1085,7 +1085,7 @@
         <v>إذا كان التدخين يسبب خلايا غير طبيعية، فإن الخلايا غير الطبيعية هي السبب الوحيد للسرطان.</v>
       </c>
       <c r="D49" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="50">
@@ -1099,7 +1099,7 @@
         <v>لقد قامت كوريا الشمالية بتركيب كاميرات تفتيش جديدة.</v>
       </c>
       <c r="D50" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="51">
@@ -1113,7 +1113,7 @@
         <v>يمكنك الفوز إذا كان الخصم وحده.</v>
       </c>
       <c r="D51" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="52">
@@ -1127,7 +1127,7 @@
         <v>بيع سيارة يشبه بيع الماء في الصحراء</v>
       </c>
       <c r="D52" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="53">
@@ -1141,7 +1141,7 @@
         <v>كان باكنغهام يتحدث عادة في الاجتماعات.</v>
       </c>
       <c r="D53" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="54">
@@ -1155,7 +1155,7 @@
         <v>المسح ضروري لهذا النوع من البلاط</v>
       </c>
       <c r="D54" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="55">
@@ -1169,7 +1169,7 @@
         <v>سيقوم الأطباء بتتبع تاريخ تطعيم المريض.</v>
       </c>
       <c r="D55" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="56">
@@ -1183,7 +1183,7 @@
         <v>السؤال صعب الإجابة عليه</v>
       </c>
       <c r="D56" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="57">
@@ -1197,7 +1197,7 @@
         <v>توجد قوانين حقوق الطبع والنشر منذ أكثر من 200 عام.</v>
       </c>
       <c r="D57" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="58">
@@ -1211,7 +1211,7 @@
         <v>هذه الرسالة المهمة تتعلق بالتعليقات التي أدلت بها بيث إيفلاند.</v>
       </c>
       <c r="D58" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="59">
@@ -1225,7 +1225,7 @@
         <v>جبن الحلوم من الأفضل تناوله في الخارج</v>
       </c>
       <c r="D59" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="60">
@@ -1239,7 +1239,7 @@
         <v>بلجيكا تتكون في الغالب من الفلمنك.</v>
       </c>
       <c r="D60" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="61">
@@ -1253,7 +1253,7 @@
         <v>مرض لايم وراثي.</v>
       </c>
       <c r="D61" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="62">
@@ -1267,7 +1267,7 @@
         <v>النمسا فيلم.</v>
       </c>
       <c r="D62" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="63">
@@ -1281,7 +1281,7 @@
         <v>تتميز أغنية "Rich Girl" بمغني راب ألماني.</v>
       </c>
       <c r="D63" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="64">
@@ -1295,7 +1295,7 @@
         <v>ظهر لويس توملينسون في كوميديا على قناة ITV.</v>
       </c>
       <c r="D64" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="65">
@@ -1309,7 +1309,7 @@
         <v>جينيفر غارنر كانت في فيلم.</v>
       </c>
       <c r="D65" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="66">
@@ -1323,7 +1323,7 @@
         <v>جيمس ويلسون هو شخص حقيقي لم يتم تحويله بعد إلى شخصية خيالية.</v>
       </c>
       <c r="D66" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="67">
@@ -1337,7 +1337,7 @@
         <v>سيتم محاكمة السيد مايكل.</v>
       </c>
       <c r="D67" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="68">
@@ -1351,7 +1351,7 @@
         <v>قد يشعر المرء بالإهانة إذا تلقى دعوة لحفل ختان.</v>
       </c>
       <c r="D68" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="69">
@@ -1365,7 +1365,7 @@
         <v>تمت إزالة القناة منذ ذلك الحين من التحميل من الإنترنت.</v>
       </c>
       <c r="D69" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="70">
@@ -1379,7 +1379,7 @@
         <v>شرط مسبق لتنزيل القناة هو وجود متصفح إنترنت إكسبلورر مثبت.</v>
       </c>
       <c r="D70" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="71">
@@ -1393,7 +1393,7 @@
         <v>يوجد عدد محدد من الناخبين.</v>
       </c>
       <c r="D71" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="72">
@@ -1407,7 +1407,7 @@
         <v>صفق متداولو الخيارات بأيديهم تقديراً لشولز وميرتون.</v>
       </c>
       <c r="D72" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="73">
@@ -1421,7 +1421,7 @@
         <v>إذا لم ننتبه إلى ماكدونالدز في العالم، فسوف يختفون من تلقاء أنفسهم.</v>
       </c>
       <c r="D73" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="74">
@@ -1435,7 +1435,7 @@
         <v>إنه علامة إيجابية جدًا أن 20% من أموال صناديق الاستثمار الجديدة تتجه نحو الصناديق المؤشر.</v>
       </c>
       <c r="D74" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="75">
@@ -1449,7 +1449,7 @@
         <v>أندرو بومغارتنر معلم ممل.</v>
       </c>
       <c r="D75" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="76">
@@ -1463,7 +1463,7 @@
         <v>ظن الأولاد الكبار أنه خالٍ من المخاطر.</v>
       </c>
       <c r="D76" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="77">
@@ -1477,7 +1477,7 @@
         <v>الاستطلاع متاح للمشاركة عبر الإنترنت.</v>
       </c>
       <c r="D77" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="78">
@@ -1491,7 +1491,7 @@
         <v>وسائل الإعلام المؤيدة للاختيار مستعدة لقبول الإحصائيات التي تدعم ادعاءاتها، حتى وإن كانت غير صحيحة.</v>
       </c>
       <c r="D78" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="79">
@@ -1505,7 +1505,7 @@
         <v>يجعل جيري ساينفيلد السحر يبدو قليلاً غير ناضج.</v>
       </c>
       <c r="D79" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="80">
@@ -1519,7 +1519,7 @@
         <v>يجب على رجل كينيويك أن يتخذ قرارًا بشأن حجزه إذا كانت الأدلة موجودة.</v>
       </c>
       <c r="D80" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="81">
@@ -1533,7 +1533,7 @@
         <v>غالبًا ما يسمع المرء التصفيق في قاعة تداول الخيارات.</v>
       </c>
       <c r="D81" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="82">
@@ -1547,7 +1547,7 @@
         <v>كما اتضح، كان من الممكن أن تصبح لوينسكي وتريpp أصدقاء جيدين إذا عبر كلينتون عن حزنه وندمه.</v>
       </c>
       <c r="D82" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="83">
@@ -1561,7 +1561,7 @@
         <v>هناك حرب أهلية ثقافية تحدث.</v>
       </c>
       <c r="D83" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="84">
@@ -1589,7 +1589,7 @@
         <v>سيتخلى المعلنون عن الدورية إذا كانت مجانية</v>
       </c>
       <c r="D85" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="86">
@@ -1603,7 +1603,7 @@
         <v>سيخسر الكثير إذا اشترى بهامش.</v>
       </c>
       <c r="D86" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="87">
@@ -1617,7 +1617,7 @@
         <v>شين على طريق يؤدي إلى الموت.</v>
       </c>
       <c r="D87" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="88">
@@ -1631,7 +1631,7 @@
         <v>بعد نجاح استئناس الحيوانات، فإن استخدامهم كحيوانات أليفة هو خيار شخصي.</v>
       </c>
       <c r="D88" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="89">
@@ -1645,7 +1645,7 @@
         <v>يمكنك النقر هنا لقراءة رأي جون روبن بايتز حول الجدل ورأيه في الرقابة.</v>
       </c>
       <c r="D89" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="90">
@@ -1659,7 +1659,7 @@
         <v>ماذا لو كان هناك لاعب آخر؟</v>
       </c>
       <c r="D90" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="91">
@@ -1673,7 +1673,7 @@
         <v>لانسبورغ ينتقد الولايات المتحدة الأمريكية.</v>
       </c>
       <c r="D91" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="92">
@@ -1687,7 +1687,7 @@
         <v>قليل من المنشورات المادية، إن وجدت، تكون باهظة الثمن - في الغالب، هي في متناول الجميع.</v>
       </c>
       <c r="D92" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="93">
@@ -1701,7 +1701,7 @@
         <v>إجراء الإجهاض مهم</v>
       </c>
       <c r="D93" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="94">
@@ -1715,7 +1715,7 @@
         <v>استخدام حساب IRA قبل التقاعد يمكن أن ينتج عنه فوائد ضريبية</v>
       </c>
       <c r="D94" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="95">
@@ -1729,7 +1729,7 @@
         <v>نهج دقيق لخروجهم مقبول</v>
       </c>
       <c r="D95" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="96">
@@ -1743,7 +1743,7 @@
         <v>هناك أعضاء في الكونغرس قد استخدموا مترو أنفاق مدينة نيويورك.</v>
       </c>
       <c r="D96" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="97">
@@ -1757,7 +1757,7 @@
         <v>جلبت صحافة إيسيكوف له احتقار الآخرين.</v>
       </c>
       <c r="D97" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="98">
@@ -1771,7 +1771,7 @@
         <v>يواجه بيل غيتس صعوبة في دفع فواتيره.</v>
       </c>
       <c r="D98" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="99">
@@ -1785,7 +1785,7 @@
         <v>ينظر النقاد بازدراء إلى جميع الروايات الاجتماعية.</v>
       </c>
       <c r="D99" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="100">
@@ -1799,7 +1799,7 @@
         <v>تناول القشريات يجعلك تبدو وكأنك تأكل بطريقة تشبه الطيور.</v>
       </c>
       <c r="D100" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="101">
@@ -1813,7 +1813,7 @@
         <v>التقرير في صحيفة دالاس مورنينغ نيوز ساعد في تسليط المزيد من الضوء على الحدث الذي وقع بين كلينتون ولوينسكي.</v>
       </c>
       <c r="D101" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="102">
@@ -1827,7 +1827,7 @@
         <v>وافق لأنه كان البديل هو العزل.</v>
       </c>
       <c r="D102" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="103">
@@ -1841,7 +1841,7 @@
         <v>جورج بوش الأب وجورج بوش الابن كلاهما من الجنوب.</v>
       </c>
       <c r="D103" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="104">
@@ -1855,7 +1855,7 @@
         <v>ظهرت معظم السلبيات مرة أخرى.</v>
       </c>
       <c r="D104" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="105">

--- a/Annotations/annotations_AR.xlsx
+++ b/Annotations/annotations_AR.xlsx
@@ -2527,7 +2527,7 @@
         <v>هل سنستمر في كوننا أصدقاء إذا تغيرت؟</v>
       </c>
       <c r="D152" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="153">

--- a/Annotations/annotations_AR.xlsx
+++ b/Annotations/annotations_AR.xlsx
@@ -2541,7 +2541,7 @@
         <v>سُئل عن المصورين من كاليفورنيا بشكل خاص.</v>
       </c>
       <c r="D153" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="154">
@@ -2555,7 +2555,7 @@
         <v>إن إجراء التركيبات كل خمس سنوات أو كل ثلاث سنوات يؤثر على تكاليف العمالة.</v>
       </c>
       <c r="D154" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="155">
@@ -2569,7 +2569,7 @@
         <v>الحزب الجمهوري لديه نسبة منخفضة من المشاركة الانتخابية.</v>
       </c>
       <c r="D155" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="156">
@@ -2583,7 +2583,7 @@
         <v>كم من الوقت يجب أن أنتظر حتى يزيل شخص ما ملابسه من الغسالة أو المجفف؟</v>
       </c>
       <c r="D156" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="157">
@@ -2597,7 +2597,7 @@
         <v>أشار القاضي إلى النساء الصاخبات وطالب بالصمت الفوري.</v>
       </c>
       <c r="D157" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="158">
@@ -2611,7 +2611,7 @@
         <v>من المعروف أنك ستفهم لغتهم من خلال الاستماع إليهم وهم يغنون.</v>
       </c>
       <c r="D158" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="159">
@@ -2625,7 +2625,7 @@
         <v>جدته في حالة سيئة للغاية الآن.</v>
       </c>
       <c r="D159" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="160">
@@ -2639,7 +2639,7 @@
         <v>ستحصل على قهوة مجانية إذا أرسلت هذه البطاقة المحددة.</v>
       </c>
       <c r="D160" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="161">
@@ -2653,7 +2653,7 @@
         <v>إذا استطعنا رؤية دليل على أن هؤلاء الأشخاص يغادرون البلاد، فإن هؤلاء الأشخاص لن يبقوا.</v>
       </c>
       <c r="D161" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="162">
@@ -2667,7 +2667,7 @@
         <v>على الرغم من أنه كان منذ وقت طويل، إلا أنه لا يزال مهمًا حقًا.</v>
       </c>
       <c r="D162" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="163">
@@ -2681,7 +2681,7 @@
         <v>يتساءل البعض عما إذا كانت كلينتون ستستخدم حقها في عدم الإجابة إذا تم استدعاؤها إلى المحكمة.</v>
       </c>
       <c r="D163" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="164">
@@ -2695,7 +2695,7 @@
         <v>إنه تسلق للوصول إلى حدائق قمة فيكتوريا.</v>
       </c>
       <c r="D164" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="165">
@@ -2709,7 +2709,7 @@
         <v>إذا لم تستخدمه قبل نهاية العام، فسوف يختفي.</v>
       </c>
       <c r="D165" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="166">
@@ -2723,7 +2723,7 @@
         <v>النشر في مجلات الصدمات والطوارئ هو الطريقة الوحيدة لتغيير الممارسات.</v>
       </c>
       <c r="D166" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="167">
@@ -2737,7 +2737,7 @@
         <v>البائعون لا يمتلكون دائمًا وجودًا جسديًا كافيًا في الولاية.</v>
       </c>
       <c r="D167" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="168">
@@ -2751,7 +2751,7 @@
         <v>الراوي مصاص دماء وهذه واحدة من قواه كمصاص دماء.</v>
       </c>
       <c r="D168" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="169">
@@ -2765,7 +2765,7 @@
         <v>إذا استمر سعر الفائدة الحالي كما هو، سيبقى سعر سوق الأوراق المالية الحكومية كما هو.</v>
       </c>
       <c r="D169" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="170">
@@ -2779,7 +2779,7 @@
         <v>إنها سيارة غريبة تُدعى ساب، لست متأكدًا مما إذا كانت موجودة هناك.</v>
       </c>
       <c r="D170" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="171">
@@ -2793,7 +2793,7 @@
         <v>لا يوجد سبب واحد يجعل أي حكومة تفرض حظراً على هذا المنتج.</v>
       </c>
       <c r="D171" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="172">
@@ -2807,7 +2807,7 @@
         <v>هل لم تفهم كيف يعمل الائتمان؟</v>
       </c>
       <c r="D172" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="173">
@@ -2821,7 +2821,7 @@
         <v>لم يكن لدينا أي تجربة في الفوترة مع الشركة.</v>
       </c>
       <c r="D173" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="174">
@@ -2835,7 +2835,7 @@
         <v>من المؤكد أن عدم التواصل يعني عدم الكذب.</v>
       </c>
       <c r="D174" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="175">

--- a/Annotations/annotations_AR.xlsx
+++ b/Annotations/annotations_AR.xlsx
@@ -2849,7 +2849,7 @@
         <v>إذا كنت في صحة سيئة، فإن دار التقاعد فكرة جيدة.</v>
       </c>
       <c r="D175" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="176">
@@ -2863,7 +2863,7 @@
         <v>ستزداد الطلب على السلعة إذا تم عرضها مجانًا.</v>
       </c>
       <c r="D176" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="177">
@@ -2877,7 +2877,7 @@
         <v>كانوا مستعدين لمواجهة الظروف القاسية والبقاء في روسيا.</v>
       </c>
       <c r="D177" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="178">
@@ -2891,7 +2891,7 @@
         <v>ليس لدينا ميزانيات للدرجات.</v>
       </c>
       <c r="D178" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="179">
@@ -2905,7 +2905,7 @@
         <v>كان قصر غراسي من القرن الثامن عشر سيكون غير قابل للتقديم لولا غاي أولينتي.</v>
       </c>
       <c r="D179" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="180">
@@ -2919,7 +2919,7 @@
         <v>الآباء الذين يعملون مع أطفالهم يضعونهم في وضع غير مؤاتٍ للغاية.</v>
       </c>
       <c r="D180" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="181">
@@ -2933,7 +2933,7 @@
         <v>لم نتعلم عن هذا منه.</v>
       </c>
       <c r="D181" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="182">
@@ -2947,7 +2947,7 @@
         <v>لم يكن لينكولن قلقًا وسار ببطء.</v>
       </c>
       <c r="D182" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="183">
@@ -2961,7 +2961,7 @@
         <v>تأملت إذا كنت قد أنجزت الأمر بشكل جيد.</v>
       </c>
       <c r="D183" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="184">
@@ -2975,7 +2975,7 @@
         <v>ضربتك بسيفي الصغير.</v>
       </c>
       <c r="D184" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="185">
@@ -2989,7 +2989,7 @@
         <v>من الواضح أننا فزنا.</v>
       </c>
       <c r="D185" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="186">
@@ -3003,7 +3003,7 @@
         <v>عندما لا يكون هناك شمس، أشعر وكأنني أعيش في كهف.</v>
       </c>
       <c r="D186" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="187">
@@ -3017,7 +3017,7 @@
         <v>المشي سيجعلك تضيع</v>
       </c>
       <c r="D187" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="188">
@@ -3031,7 +3031,7 @@
         <v>لم تسفر الشكاوى في الصفوف عن أي نتيجة.</v>
       </c>
       <c r="D188" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="189">
@@ -3045,7 +3045,7 @@
         <v>كان الجميع يعرف أن تومي لم يكن ذكيًا بما يكفي لفهم العلاقة.</v>
       </c>
       <c r="D189" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="190">
@@ -3059,7 +3059,7 @@
         <v>لدي سبب للاشتباه في أن الفتاة في مانشستر كانت مجرد طُعم.</v>
       </c>
       <c r="D190" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="191">
@@ -3073,7 +3073,7 @@
         <v>الوصايا ليست دينًا.</v>
       </c>
       <c r="D191" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="192">
@@ -3087,7 +3087,7 @@
         <v>إذا كانت المنظمة لديها فهم واضح لأهدافها التجارية، فسوف تكون قادرة على استخدام نظام المعلومات المقترح لتحقيق تلك الأهداف.</v>
       </c>
       <c r="D192" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="193">
@@ -3101,7 +3101,7 @@
         <v>لن يرتكب خطأ.</v>
       </c>
       <c r="D193" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="194">
@@ -3115,7 +3115,7 @@
         <v>تم اختبار المنتج لقدراته على تحمل الظروف البيئية القاسية.</v>
       </c>
       <c r="D194" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="195">
@@ -3129,7 +3129,7 @@
         <v>سيقولون إنهم كانوا مستعدين للذهاب.</v>
       </c>
       <c r="D195" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="196">
@@ -3143,7 +3143,7 @@
         <v>سيتعين علينا تغيير القواعد.</v>
       </c>
       <c r="D196" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="197">
@@ -3157,7 +3157,7 @@
         <v>أنا لست في العنوان.</v>
       </c>
       <c r="D197" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="198">
@@ -3171,7 +3171,7 @@
         <v>ستكون الدولة قادرة على السيطرة على الجيش.</v>
       </c>
       <c r="D198" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="199">
@@ -3185,7 +3185,7 @@
         <v>إذا كانت الشرطة تعتقد أن الجريمة ارتكبت بواسطة شخص واحد، فسوف تقوم باعتقال ذلك الشخص.</v>
       </c>
       <c r="D199" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="200">
@@ -3199,7 +3199,7 @@
         <v>سأقوم بذلك بنفسي.</v>
       </c>
       <c r="D200" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="201">
@@ -3213,7 +3213,7 @@
         <v>سيكون نظام الرعاية الصحية تحت ضغط إذا تم تنفيذ السياسة الجديدة.</v>
       </c>
       <c r="D201" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="202">
@@ -3227,7 +3227,7 @@
         <v>أستطيع فعل ذلك.</v>
       </c>
       <c r="D202" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="203">
@@ -3241,7 +3241,7 @@
         <v>سيفوز الديمقراطيون بالبيت الأبيض.</v>
       </c>
       <c r="D203" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="204">
@@ -3255,7 +3255,7 @@
         <v>سأكتب لك رسالة.</v>
       </c>
       <c r="D204" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="205">
@@ -3269,7 +3269,7 @@
         <v>يمكنك أخذ القطار.</v>
       </c>
       <c r="D205" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="206">
@@ -3283,7 +3283,7 @@
         <v>كانت ساخرة إذا قامت بلف عينيها.</v>
       </c>
       <c r="D206" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="207">
@@ -3297,7 +3297,7 @@
         <v>أنت لن تغادر.</v>
       </c>
       <c r="D207" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="208">
@@ -3311,7 +3311,7 @@
         <v>ستكون تكلفة الاختبار مرتفعة.</v>
       </c>
       <c r="D208" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="209">
@@ -3325,7 +3325,7 @@
         <v>إذا لم تحصل على شيء، فأنت لا تستحقه.</v>
       </c>
       <c r="D209" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="210">
@@ -3339,7 +3339,7 @@
         <v>أنا لست شخصًا ذكيًا.</v>
       </c>
       <c r="D210" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="211">
@@ -3353,7 +3353,7 @@
         <v>الفيلم هو كلمة "بؤس".</v>
       </c>
       <c r="D211" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="212">
@@ -3367,7 +3367,7 @@
         <v>الرجل في القمر ليس لديه رسالة ليبعث بها.</v>
       </c>
       <c r="D212" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="213">
@@ -3381,7 +3381,7 @@
         <v>ستنتهي مثلما انتهيت.</v>
       </c>
       <c r="D213" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="214">
@@ -3395,7 +3395,7 @@
         <v>إذا لم تتمكن من التذكر، فإن هذه المحادثة انتهت.</v>
       </c>
       <c r="D214" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="215">
@@ -3409,7 +3409,7 @@
         <v>سنكون الدولة الوحيدة في العالم التي لا تفعل ذلك.</v>
       </c>
       <c r="D215" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="216">
@@ -3423,7 +3423,7 @@
         <v>خدمة البريد ليست مغلقة.</v>
       </c>
       <c r="D216" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="217">
@@ -3437,7 +3437,7 @@
         <v>لم يكن الفيتناميون الشماليون ليهاجمونا لو لم نهاجمهم.</v>
       </c>
       <c r="D217" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="218">
@@ -3451,7 +3451,7 @@
         <v>الفكرة غير مدروسة بشكل جيد.</v>
       </c>
       <c r="D218" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="219">
@@ -3465,7 +3465,7 @@
         <v>طُعِن قلبي بسكين.</v>
       </c>
       <c r="D219" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="220">
@@ -3479,7 +3479,7 @@
         <v>إذا لم تفعل ما أقوله، فسيتعين عليك مواجهة العواقب.</v>
       </c>
       <c r="D220" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="221">
@@ -3493,7 +3493,7 @@
         <v>إذا كنت بريئًا، يُفترض أنك بريء.</v>
       </c>
       <c r="D221" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="222">
@@ -3507,7 +3507,7 @@
         <v>مرر مجلس الشيوخ الميزانية</v>
       </c>
       <c r="D222" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="223">
@@ -3521,7 +3521,7 @@
         <v>لا يمكن الوثوق بك مع سلاح.</v>
       </c>
       <c r="D223" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="224">
@@ -3535,7 +3535,7 @@
         <v>انحراف المعيار لتوزيع هوامش أرباح طرق التوصيل صغير.</v>
       </c>
       <c r="D224" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="225">
@@ -3549,7 +3549,7 @@
         <v>الأسئلة ليست هي نفسها.</v>
       </c>
       <c r="D225" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="226">
@@ -3563,7 +3563,7 @@
         <v>المثل القديم صحيح.</v>
       </c>
       <c r="D226" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="227">
@@ -3577,7 +3577,7 @@
         <v>كان من المتوقع أن يعين الحاكم مدعياً خاصاً.</v>
       </c>
       <c r="D227" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="228">
@@ -3591,7 +3591,7 @@
         <v>ستصبح الولايات المتحدة جمهورية موز.</v>
       </c>
       <c r="D228" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="229">
@@ -3619,7 +3619,7 @@
         <v>لا يمكن للمراقبين مراقبة الأمور عن كثب إلا إذا راقبوا المراقبين عن كثب.</v>
       </c>
       <c r="D230" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="231">
@@ -3633,7 +3633,7 @@
         <v>كانت نتيجة ذلك زيادة الاهتمام العام بالفنون.</v>
       </c>
       <c r="D231" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="232">
@@ -3647,7 +3647,7 @@
         <v>لم يتم تحديد الأسباب الجذرية للمشكلة.</v>
       </c>
       <c r="D232" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="233">
@@ -3661,7 +3661,7 @@
         <v>الكتاب سحري.</v>
       </c>
       <c r="D233" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="234">
@@ -3675,7 +3675,7 @@
         <v>إذا طلبت طاولة جيدة، ستحصل على طاولة جيدة.</v>
       </c>
       <c r="D234" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="235">
@@ -3689,7 +3689,7 @@
         <v>من المستحيل أن يحدث سيناريو مشابه في المستقبل.</v>
       </c>
       <c r="D235" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="236">
@@ -3703,7 +3703,7 @@
         <v>القيمة العادلة للعقار المنقول هي نفس قيمة العقار المستلم.</v>
       </c>
       <c r="D236" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="237">
@@ -3717,7 +3717,7 @@
         <v>الرجل الذي اخترعه لديه مشكلة معه.</v>
       </c>
       <c r="D237" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="238">
@@ -3731,7 +3731,7 @@
         <v>إذا كان يمكننا القول إن لدينا هوية واحدة، فهي هوية جماعية.</v>
       </c>
       <c r="D238" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="239">
@@ -3745,7 +3745,7 @@
         <v>ارتداء بدلتك إلى الحفلة ليس نحسًا.</v>
       </c>
       <c r="D239" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="240">
@@ -3759,7 +3759,7 @@
         <v>لم يكن الكلب في الغرفة، لذا لم يكن الصوت مسموعًا.</v>
       </c>
       <c r="D240" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="241">
@@ -3773,7 +3773,7 @@
         <v>لم يأمر الفوهرر بتدمير اليهود في معسكرات الاعتقال.</v>
       </c>
       <c r="D241" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="242">
@@ -3787,7 +3787,7 @@
         <v>إذا كنت في مكاني، كنت ستصبح أكثر حذرًا.</v>
       </c>
       <c r="D242" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="243">
@@ -3801,7 +3801,7 @@
         <v>أعلم أن هذا صحيح.</v>
       </c>
       <c r="D243" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="244">
@@ -3815,7 +3815,7 @@
         <v>كان يُنظر إليه كأحمق إذا لم يتوقف.</v>
       </c>
       <c r="D244" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="245">
@@ -3829,7 +3829,7 @@
         <v>إذا نمت، سأفوت الفيلم.</v>
       </c>
       <c r="D245" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="246">
@@ -3843,7 +3843,7 @@
         <v>لن تتمكن المنشأة من تحديد ما إذا كانت تمتثل لمتطلبات القاعدة.</v>
       </c>
       <c r="D246" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="247">
@@ -3857,7 +3857,7 @@
         <v>تبدو وكأنها قد حصلت على راتبها للتو.</v>
       </c>
       <c r="D247" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="248">
@@ -3871,7 +3871,7 @@
         <v>لن أضطر إلى ذلك.</v>
       </c>
       <c r="D248" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="249">
@@ -3885,7 +3885,7 @@
         <v>الرئيس سياسي.</v>
       </c>
       <c r="D249" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="250">
@@ -3899,7 +3899,7 @@
         <v>إذا لم يكن هناك تهديد واضح، فمن الجيد اختلاق واحد.</v>
       </c>
       <c r="D250" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="251">
@@ -3913,7 +3913,7 @@
         <v>سيتخذ الحزب موقفًا بشأن القضية.</v>
       </c>
       <c r="D251" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="252">
@@ -3927,7 +3927,7 @@
         <v>ستكون خدمة البريد قادرة على دفع التزاماتها الحالية للحكومة الفيدرالية بشأن مزايا الصحة للمتقاعدين على الأقل لمدة عشر سنوات قادمة.</v>
       </c>
       <c r="D252" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="253">
@@ -3941,7 +3941,7 @@
         <v>ستستمر الأزمة في التفاقم.</v>
       </c>
       <c r="D253" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="254">
@@ -3955,7 +3955,7 @@
         <v>وجود مستوى عالٍ من الديون هو مشكلة.</v>
       </c>
       <c r="D254" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="255">
@@ -3969,7 +3969,7 @@
         <v>الحرب لم تنتهِ بعد.</v>
       </c>
       <c r="D255" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="256">
@@ -3983,7 +3983,7 @@
         <v>أفضل طريقة لحل المشكلة هي التخلص من جميع السيارات.</v>
       </c>
       <c r="D256" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="257">
@@ -3997,7 +3997,7 @@
         <v>سيتعين على مجلس المدينة القيام بذلك.</v>
       </c>
       <c r="D257" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="258">
@@ -4011,7 +4011,7 @@
         <v>إذا كان لديك انتظار طويل في الطابور، فلا تذهب إلى كشك الوجبات الخفيفة. عادةً ما يكون مليئًا بالأطفال الصاخبين.</v>
       </c>
       <c r="D258" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="259">
@@ -4025,7 +4025,7 @@
         <v>إذا لم تفعل ذلك، ستندم عليه.</v>
       </c>
       <c r="D259" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="260">
@@ -4039,7 +4039,7 @@
         <v>تكنولوجيا الغد قادرة على معالجة مشاكل اليوم.</v>
       </c>
       <c r="D260" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="261">
@@ -4053,7 +4053,7 @@
         <v>تتعطل عملية التنشئة الاجتماعية والتعلم التي تحدث في الأسرة والمدرسة.</v>
       </c>
       <c r="D261" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="262">
@@ -4067,7 +4067,7 @@
         <v>يمكن تحويل النبيذ إلى خل.</v>
       </c>
       <c r="D262" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="263">
@@ -4081,7 +4081,7 @@
         <v>سوف ينخفض الدولار ويرتفع الين.</v>
       </c>
       <c r="D263" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="264">
@@ -4095,7 +4095,7 @@
         <v>سيصبح التعديل ساري المفعول في 1 يناير 2017.</v>
       </c>
       <c r="D264" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="265">
@@ -4109,7 +4109,7 @@
         <v>الشيء الوحيد الذي سينقذنا هو إذا تمكنا من الوصول إلى منطقة الفهم المتبادل.</v>
       </c>
       <c r="D265" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="266">
@@ -4123,7 +4123,7 @@
         <v>لا يمكن للمنطقة التعليمية إصدار سندات.</v>
       </c>
       <c r="D266" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="267">
@@ -4137,7 +4137,7 @@
         <v>ليس من الواضح أنه سيتم تعديل إنتاجية العمل إذا لم يتم تعديل تكاليف العمل.</v>
       </c>
       <c r="D267" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="268">
@@ -4151,7 +4151,7 @@
         <v>الأشخاص الطيبون ليسوا بالضرورة سيئين.</v>
       </c>
       <c r="D268" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="269">
@@ -4165,7 +4165,7 @@
         <v>السيد سميثرز رأى شبحًا.</v>
       </c>
       <c r="D269" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="270">
@@ -4179,7 +4179,7 @@
         <v>النموذج الحالي سيء.</v>
       </c>
       <c r="D270" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="271">
@@ -4193,7 +4193,7 @@
         <v>تحديد شرب الكحول بكثرة لدى المرضى لا يعتمد بشكل صارم على عدد المشروبات التي تم تناولها في جلسة واحدة.</v>
       </c>
       <c r="D271" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="272">
@@ -4207,7 +4207,7 @@
         <v>سيتعين على المنتج دفع الحد الأدنى من الأجور.</v>
       </c>
       <c r="D272" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="273">
@@ -4221,7 +4221,7 @@
         <v>سيدخل العقد الجديد حيز التنفيذ في 1 يناير 2015.</v>
       </c>
       <c r="D273" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="274">
@@ -4235,7 +4235,7 @@
         <v>كنت سأعرف كيف أفعل ذلك.</v>
       </c>
       <c r="D274" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="275">
@@ -4249,7 +4249,7 @@
         <v>إذا لم تكن متطلبًا جدًا، ستتمكن من صنع منتج جيد.</v>
       </c>
       <c r="D275" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="276">
@@ -4263,7 +4263,7 @@
         <v>القطاع المالي ليس مهمًا.</v>
       </c>
       <c r="D276" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="277">
@@ -4277,7 +4277,7 @@
         <v>الخطوة المناسبة التالية هي الاتصال ببرنامج الاستقبال للحصول على إحالة إلى برنامج الاستقبال II.</v>
       </c>
       <c r="D277" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="278">
@@ -4291,7 +4291,7 @@
         <v>الجنود قد ماتوا بالفعل.</v>
       </c>
       <c r="D278" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="279">
@@ -4305,7 +4305,7 @@
         <v>عليّ أن أجد عملاً.</v>
       </c>
       <c r="D279" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="280">
@@ -4319,7 +4319,7 @@
         <v>قال إنه سيذهب معي إلى حفلة موسيقية في قاعة ألبرت.</v>
       </c>
       <c r="D280" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="281">
@@ -4333,7 +4333,7 @@
         <v>لم أقرأه بعد.</v>
       </c>
       <c r="D281" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="282">
@@ -4347,7 +4347,7 @@
         <v>إذا ظلت أسعار الفائدة الحالية كما هي، فإن سعر سوق الأوراق المالية الحكومية سيبقى كما هو.</v>
       </c>
       <c r="D282" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="283">
@@ -4361,7 +4361,7 @@
         <v>المنظمات غير الربحية ليس لديها القدرة على تغيير العالم.</v>
       </c>
       <c r="D283" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="284">
@@ -4375,7 +4375,7 @@
         <v>كنت سأفعل ذلك لو كنت في موقف يمكنني من المساعدة.</v>
       </c>
       <c r="D284" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="285">
@@ -4389,7 +4389,7 @@
         <v>لم تكن الآلة رئيس العامل.</v>
       </c>
       <c r="D285" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="286">
@@ -4403,7 +4403,7 @@
         <v>أنت متأكد.</v>
       </c>
       <c r="D286" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="287">
@@ -4417,7 +4417,7 @@
         <v>سيجب إعادة تقييم هذا.</v>
       </c>
       <c r="D287" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="288">
@@ -4431,7 +4431,7 @@
         <v>أعتقد أنك ذكي جداً.</v>
       </c>
       <c r="D288" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="289">
@@ -4445,7 +4445,7 @@
         <v>كان سيجيب على أي حال.</v>
       </c>
       <c r="D289" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="290">
@@ -4459,7 +4459,7 @@
         <v>لا يستطيعون تحمل تكلفة الذهاب إلى السينما.</v>
       </c>
       <c r="D290" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="291">
@@ -4473,7 +4473,7 @@
         <v>إذا كان يجب عليك أن تتجادل، فاجعلها مع صديقتك.</v>
       </c>
       <c r="D291" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="292">
@@ -4487,7 +4487,7 @@
         <v>إذا كان لدينا زوج من الأضداد، يمكننا دائمًا الحصول على ثنائية زائفة.</v>
       </c>
       <c r="D292" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="293">
@@ -4501,7 +4501,7 @@
         <v>ستُغلق الشركة.</v>
       </c>
       <c r="D293" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="294">
@@ -4515,7 +4515,7 @@
         <v>البلد ليس لديه اهتمام بالمشكلة، لأن وسائل الإعلام قررت تجاهلها.</v>
       </c>
       <c r="D294" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="295">
@@ -4529,7 +4529,7 @@
         <v>الطفل ليس غير شرعي.</v>
       </c>
       <c r="D295" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="296">
@@ -4543,7 +4543,7 @@
         <v>إذا تم تمرير التشريع الجديد، سيتم إنشاء وزارة منفصلة لشؤون المرأة.</v>
       </c>
       <c r="D296" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="297">
@@ -4557,7 +4557,7 @@
         <v>تم تقليص حجم الجيش بشكل كبير.</v>
       </c>
       <c r="D297" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="298">
@@ -4571,7 +4571,7 @@
         <v>إذا لم تقم بإجراء الإصلاحات، ستكون مسؤولاً عن التكلفة الكاملة للإصلاحات.</v>
       </c>
       <c r="D298" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="299">
@@ -4585,7 +4585,7 @@
         <v>إذا كان لديك شكوى، اكتب إلى الرئيس.</v>
       </c>
       <c r="D299" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="300">
@@ -4599,7 +4599,7 @@
         <v>كنت أعلم أنك ستخبرني.</v>
       </c>
       <c r="D300" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="301">
@@ -4613,7 +4613,7 @@
         <v>طبق الشيف الخاص لليوم هو مكان جيد لتناول العشاء.</v>
       </c>
       <c r="D301" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="302">

--- a/Annotations/annotations_AR.xlsx
+++ b/Annotations/annotations_AR.xlsx
@@ -4627,7 +4627,7 @@
         <v>جربت بروك الطعام التايلاندي للمرة الأولى</v>
       </c>
       <c r="D302" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="303">
@@ -4641,7 +4641,7 @@
         <v>P60 هو خطاب من عضو في مجلس المدرسة إلى المحرر حيث يعيد سرد ما حدث في القضية.</v>
       </c>
       <c r="D303" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="304">
@@ -4655,7 +4655,7 @@
         <v>تحتوي المكتبات المدرسية على كتب سنوية.</v>
       </c>
       <c r="D304" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="305">
@@ -4669,7 +4669,7 @@
         <v>تم الإبلاغ عن هذه القصة من قبل رجل</v>
       </c>
       <c r="D305" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="306">
@@ -4683,7 +4683,7 @@
         <v>لا ينصح الدليل الناس بتحضير القهوة في منتصف النهار.</v>
       </c>
       <c r="D306" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="307">
@@ -4697,7 +4697,7 @@
         <v>لم أكن على وفاق جيد مع جيسون.</v>
       </c>
       <c r="D307" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="308">
@@ -4711,7 +4711,7 @@
         <v>كانوا يشيرون إلى كمان.</v>
       </c>
       <c r="D308" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="309">
@@ -4725,7 +4725,7 @@
         <v>بعض المواد تحتاج إلى سحبها من السوق بسبب تأثيرها على البيئة.</v>
       </c>
       <c r="D309" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="310">
@@ -4739,7 +4739,7 @@
         <v>تدرس اللجنة اقتراحًا بشأن طاقة الرياح.</v>
       </c>
       <c r="D310" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="311">
@@ -4753,7 +4753,7 @@
         <v>الرجل يحتقر ألمانيا.</v>
       </c>
       <c r="D311" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="312">
@@ -4767,7 +4767,7 @@
         <v>ستكون المياه مطلوبة</v>
       </c>
       <c r="D312" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="313">
@@ -4781,7 +4781,7 @@
         <v>مارك كافنديش انسحب من سباق Tour de France.</v>
       </c>
       <c r="D313" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="314">

--- a/Annotations/annotations_AR.xlsx
+++ b/Annotations/annotations_AR.xlsx
@@ -4795,7 +4795,7 @@
         <v>بعد أن توضح لماذا تعتقد أنها مصدر جيد لقصتك، انتظر حتى بعد المقابلة لتهددهم.</v>
       </c>
       <c r="D314" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="315">
@@ -4809,7 +4809,7 @@
         <v>الملكيون يرتدون الأصفر فقط</v>
       </c>
       <c r="D315" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="316">
@@ -4823,7 +4823,7 @@
         <v>فكر في ذكرى جميلة يمكن أن تكون مفيدة لكتابة رسالة.</v>
       </c>
       <c r="D316" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="317">
@@ -4837,7 +4837,7 @@
         <v>أظهر السهم الأيمن الطريق الصحيح</v>
       </c>
       <c r="D317" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="318">
@@ -4851,7 +4851,7 @@
         <v>بعض الفواكه من الأفضل تجنبها</v>
       </c>
       <c r="D318" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="319">
@@ -4865,7 +4865,7 @@
         <v>تاي داي سيكون في الثامنة عشرة من عمره في عيد ميلاده القادم.</v>
       </c>
       <c r="D319" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="320">
@@ -4879,7 +4879,7 @@
         <v>كان من الضروري إرشاد الطالب الجديد في المكان.</v>
       </c>
       <c r="D320" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="321">
@@ -4893,7 +4893,7 @@
         <v>الأوروبيون هم حماة السلام في البوسنة</v>
       </c>
       <c r="D321" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="322">
@@ -4907,7 +4907,7 @@
         <v>يجب أن يكون الحصان حصانًا مروضًا.</v>
       </c>
       <c r="D322" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="323">
@@ -4921,7 +4921,7 @@
         <v>يمكن استخدام هذه العملية لنسخ أقراص DVD.</v>
       </c>
       <c r="D323" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="324">
@@ -4935,7 +4935,7 @@
         <v>المفتش صدق على ذلك لكنه كان على علم بالمشكلات.</v>
       </c>
       <c r="D324" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="325">
@@ -4949,7 +4949,7 @@
         <v>كانت سوزي بحاجة إلى قص شعر.</v>
       </c>
       <c r="D325" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="326">
@@ -4963,7 +4963,7 @@
         <v>كانت لعبة مستعملة</v>
       </c>
       <c r="D326" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="327">
@@ -4977,7 +4977,7 @@
         <v>الأسلحة مكلفة وتحتاج الشرطة إلى تحويل الأموال إليهم.</v>
       </c>
       <c r="D327" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="328">
@@ -4991,7 +4991,7 @@
         <v>مايا كانت تكره مدرستها.</v>
       </c>
       <c r="D328" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="329">
@@ -5005,7 +5005,7 @@
         <v>العبارة الأخيرة في هذا السياق هي تعليق ساخر.</v>
       </c>
       <c r="D329" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="330">
@@ -5019,7 +5019,7 @@
         <v>راندي يشرب فقط 11% من المشروبات التي يشتريها.</v>
       </c>
       <c r="D330" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="331">
@@ -5033,7 +5033,7 @@
         <v>تأكد من غسل يديك أولاً باستخدام صابون مضاد للبكتيريا، واشطفهما جيدًا بالكثير من الماء.</v>
       </c>
       <c r="D331" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="332">
@@ -5047,7 +5047,7 @@
         <v>تم إصدار Hellgate في أمريكا قبل تايلاند.</v>
       </c>
       <c r="D332" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="333">
@@ -5061,7 +5061,7 @@
         <v>لقد عمل مكتبه كمشرف على مختلف رموز الخصوصية لسنوات عديدة.</v>
       </c>
       <c r="D333" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="334">
@@ -5075,7 +5075,7 @@
         <v>سارة لم تشتري عصير الملفوف.</v>
       </c>
       <c r="D334" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="335">
@@ -5089,7 +5089,7 @@
         <v>لم ترغب فرقة داير ستريتس أبدًا في أن تكون شعبية في الولايات المتحدة.</v>
       </c>
       <c r="D335" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="336">
@@ -5103,7 +5103,7 @@
         <v>الأشخاص الأصحاء لا يمرضون أبداً.</v>
       </c>
       <c r="D336" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="337">
@@ -5117,7 +5117,7 @@
         <v>زار إيثان جار أمريكا.</v>
       </c>
       <c r="D337" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="338">
@@ -5131,7 +5131,7 @@
         <v>تشمل التدابير الميزانية قروضًا يتم سدادها.</v>
       </c>
       <c r="D338" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="339">
@@ -5145,7 +5145,7 @@
         <v>تيم يحتاج إلى صواني جديدة</v>
       </c>
       <c r="D339" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="340">
@@ -5159,7 +5159,7 @@
         <v>أنهى تيم خطوبته قبل الزفاف بسبب حفلة العزوبية.</v>
       </c>
       <c r="D340" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="341">
@@ -5173,7 +5173,7 @@
         <v>قوانين الأسلحة ضرورية ولكن ليس حب الأطفال</v>
       </c>
       <c r="D341" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="342">
@@ -5187,7 +5187,7 @@
         <v>لقد كان مفوض الخصوصية مدافعًا عن الإشراف.</v>
       </c>
       <c r="D342" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="343">
@@ -5201,7 +5201,7 @@
         <v>ستيفن قد سبَح لفترة طويلة</v>
       </c>
       <c r="D343" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="344">
@@ -5215,7 +5215,7 @@
         <v>يريد المجلس التشريعي في تسمانيا الانتقال من هوبارت.</v>
       </c>
       <c r="D344" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="345">
@@ -5229,7 +5229,7 @@
         <v>هم يدعمون معاهدة التحالف الشمالي.</v>
       </c>
       <c r="D345" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="346">
@@ -5243,7 +5243,7 @@
         <v>تغذية الجراء حديثي الولادة تتطلب الكثير من المستلزمات.</v>
       </c>
       <c r="D346" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="347">
@@ -5257,7 +5257,7 @@
         <v>كان ركوب الطائرة الشراعية حلمًا تحقق لليوسي.</v>
       </c>
       <c r="D347" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="348">

--- a/Annotations/annotations_AR.xlsx
+++ b/Annotations/annotations_AR.xlsx
@@ -5271,7 +5271,7 @@
         <v>أطلق العم سام على ألبومه الأول اسم "العم سامي"</v>
       </c>
       <c r="D348" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="349">
@@ -5285,7 +5285,7 @@
         <v>يعارض المدعي تسجيل تعليقات القاضي.</v>
       </c>
       <c r="D349" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="350">
@@ -5299,7 +5299,7 @@
         <v>ريبا فقدت ساعتها لمهاجم.</v>
       </c>
       <c r="D350" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="351">
@@ -5313,7 +5313,7 @@
         <v>ضع مقلاة على الموقد.</v>
       </c>
       <c r="D351" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="352">
@@ -5327,7 +5327,7 @@
         <v>لقد أخرج أفلامًا مثل "هانك والبحث عن السعادة"، "صدفة"، و"هل نرقص؟"</v>
       </c>
       <c r="D352" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="353">
@@ -5341,7 +5341,7 @@
         <v>الحل ليس قائمًا على قتال نشط ضد مافيا المخدرات الكولومبية.</v>
       </c>
       <c r="D353" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="354">
@@ -5355,7 +5355,7 @@
         <v>تحتاج إلى كرسي كبير جدًا لصنع سموزي البطيخ باستخدام مثقاب.</v>
       </c>
       <c r="D354" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="355">
@@ -5369,7 +5369,7 @@
         <v>يشتاق جوش إلى منزله</v>
       </c>
       <c r="D355" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="356">
@@ -5383,7 +5383,7 @@
         <v>بدأ الرئيس حربًا.</v>
       </c>
       <c r="D356" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="357">
@@ -5397,7 +5397,7 @@
         <v>كان زوجي محقًا في أنني سيئة في لعبة الجولف.</v>
       </c>
       <c r="D357" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="358">
@@ -5411,7 +5411,7 @@
         <v>أليخاندرو غيرسي هو منتج مكسيكي.</v>
       </c>
       <c r="D358" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="359">
@@ -5425,7 +5425,7 @@
         <v>غادروا في الساعة التاسعة والنصف صباحًا.</v>
       </c>
       <c r="D359" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="360">
@@ -5439,7 +5439,7 @@
         <v>حزب المحافظين في كندا يريد مناقشة الإسكان الميسر في مجلس العموم.</v>
       </c>
       <c r="D360" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="361">
@@ -5453,7 +5453,7 @@
         <v>السيانيد ليس ضروريًا</v>
       </c>
       <c r="D361" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="362">
@@ -5467,7 +5467,7 @@
         <v>لقد طارت فوق النهر.</v>
       </c>
       <c r="D362" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="363">
@@ -5481,7 +5481,7 @@
         <v>يريد الراوي أن يعرف ما إذا كان السيد لاندري قد حصل على جميع المعلومات.</v>
       </c>
       <c r="D363" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="364">
@@ -5495,7 +5495,7 @@
         <v>آمل أن تأخذ وزيرة تطوير الأنواع البشرية وموظفوها حقًا بعين الاعتبار ما قلته.</v>
       </c>
       <c r="D364" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="365">
@@ -5509,7 +5509,7 @@
         <v>يتطلب الجري لمسافة 100 متر سرعة قليلة من تدريب التحمل.</v>
       </c>
       <c r="D365" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="366">
@@ -5523,7 +5523,7 @@
         <v>ألان ميتر أخرج أفلام حربية.</v>
       </c>
       <c r="D366" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="367">
@@ -5537,7 +5537,7 @@
         <v>تريد الجهاد الإسلامي إطلاق سراح زعيمها ورفع الحظر عن إيران.</v>
       </c>
       <c r="D367" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="368">
@@ -5551,7 +5551,7 @@
         <v>آنا تتفاعل مع الناس</v>
       </c>
       <c r="D368" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="369">
@@ -5565,7 +5565,7 @@
         <v>سقطت الشجرة.</v>
       </c>
       <c r="D369" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="370">
@@ -5579,7 +5579,7 @@
         <v>تقدمت تشريعات العمل في المجلس.</v>
       </c>
       <c r="D370" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="371">
@@ -5593,7 +5593,7 @@
         <v>كيفن فينسنت، 44 عامًا، من أرلنجتون، فيرجينيا، قال إن زوجته تشتري علامة أليف للأسيتامينوفين وأراد معرفة المزيد عن المشكلة.</v>
       </c>
       <c r="D371" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="372">
@@ -5607,7 +5607,7 @@
         <v>القمصان الحمراء هم مؤيدو الريف والفقراء ويدعمون رئيس الوزراء.</v>
       </c>
       <c r="D372" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="373">
@@ -5621,7 +5621,7 @@
         <v>راندي اشترى بعض الفودكا.</v>
       </c>
       <c r="D373" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="374">
@@ -5635,7 +5635,7 @@
         <v>لم يرغب المواطنون في رئيس جديد</v>
       </c>
       <c r="D374" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="375">
@@ -5649,7 +5649,7 @@
         <v>براون سترومان لديه مشكلة مع بروك ليسنر.</v>
       </c>
       <c r="D375" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="376">
@@ -5663,7 +5663,7 @@
         <v>أكل إيثان الطعام الإيطالي</v>
       </c>
       <c r="D376" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="377">
@@ -5677,7 +5677,7 @@
         <v>خطة بياناتك يحددها مزود خدمة الهاتف الخاص بك.</v>
       </c>
       <c r="D377" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="378">
@@ -5691,7 +5691,7 @@
         <v>أخبر الحاكم كاليب أن يبقى على الجانب القريب من الطريق أثناء عودته إلى المنزل.</v>
       </c>
       <c r="D378" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="379">
@@ -5705,7 +5705,7 @@
         <v>أغنية روفوس وينرايت "لا أعرف ما هو" صدرت بعد ألبومه الثاني ولكن قبل 27 يوليو 2004.</v>
       </c>
       <c r="D379" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="380">
@@ -5719,7 +5719,7 @@
         <v>في الخمسينيات من القرن الماضي، بدأت مكتب التحقيقات الفيدرالي الأمريكي في الحفاظ على قائمة عامة بالأشخاص الذين يعتبرهم من بين عشرة أشرار الأكثر طلبًا.</v>
       </c>
       <c r="D380" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="381">
@@ -5733,7 +5733,7 @@
         <v>الخطوة الثانية لتصبح رئيسًا جيدًا في دور معين هي أن يكون لديك فهم ممتاز للوظيفة وما هو مطلوب لتحقيق النجاح.</v>
       </c>
       <c r="D381" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="382">
@@ -5747,7 +5747,7 @@
         <v>نص مجهول لا يكشف عن اسمك.</v>
       </c>
       <c r="D382" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="383">
@@ -5761,7 +5761,7 @@
         <v>مثلت مدينة باث ومقاطعة ساغادهوك زعيمة الكتلة الديمقراطية، ماري سمول.</v>
       </c>
       <c r="D383" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="384">
@@ -5775,7 +5775,7 @@
         <v>ابنة كيت تعاني من الانطواء الاجتماعي.</v>
       </c>
       <c r="D384" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="385">
@@ -5789,7 +5789,7 @@
         <v>بامونووا ليست موجودة ضمن مقاطعة إيستر.</v>
       </c>
       <c r="D385" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="386">
@@ -5803,7 +5803,7 @@
         <v>تحتوي كلمة "جرو" على ثلاث حالات من حرف "ب".</v>
       </c>
       <c r="D386" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="387">
@@ -5817,7 +5817,7 @@
         <v>مارس سامي لعبة البيسبول بجدية.</v>
       </c>
       <c r="D387" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="388">
@@ -5831,7 +5831,7 @@
         <v>هواية ستيفن في الطفولة أصبحت مهنة</v>
       </c>
       <c r="D388" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="389">
@@ -5845,7 +5845,7 @@
         <v>الناس في الحكومة يلومون بعضهم البعض ويظهرون الكراهية.</v>
       </c>
       <c r="D389" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="390">
@@ -5859,7 +5859,7 @@
         <v>حقق فيلم "ما تريده الفتاة" شهادة فضية في بلجيكا.</v>
       </c>
       <c r="D390" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="391">
@@ -5873,7 +5873,7 @@
         <v>يُعتقد خطأً أن فقدان الشهية العصبي يتميز بتقييد الطعام.</v>
       </c>
       <c r="D391" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="392">
@@ -5887,7 +5887,7 @@
         <v>قدمت تينا تورنر أغنية لفيلم إنديانا جونز.</v>
       </c>
       <c r="D392" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="393">
@@ -5901,7 +5901,7 @@
         <v>وايات إيرب كان إنسانًا.</v>
       </c>
       <c r="D393" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="394">
@@ -5915,7 +5915,7 @@
         <v>تينا تورنر أصدرت أغنية لفيلم "جولدن آي".</v>
       </c>
       <c r="D394" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="395">
@@ -5929,7 +5929,7 @@
         <v>ديما لوفاتو هي مدافعة عن الوجبات الخفيفة.</v>
       </c>
       <c r="D395" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="396">
@@ -5943,7 +5943,7 @@
         <v>غوستافو كالديرون غيّر اسمه بعد 11 سبتمبر 2008.</v>
       </c>
       <c r="D396" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="397">
@@ -5957,7 +5957,7 @@
         <v>أسست باربرا بوش مؤسسة باربرا بوش لمحو الأمية للأطفال.</v>
       </c>
       <c r="D397" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="398">
@@ -5971,7 +5971,7 @@
         <v>راندل فلاق قد تم تسليط الضوء عليه في "الموقف" و"برج الظلام".</v>
       </c>
       <c r="D398" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="399">
@@ -5985,7 +5985,7 @@
         <v>حقق فيلم "ما تريده الفتاة" شهادة ذهبية في الولايات المتحدة.</v>
       </c>
       <c r="D399" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="400">
@@ -5999,7 +5999,7 @@
         <v>ميغان فوكس عملت مع فيث فورد.</v>
       </c>
       <c r="D400" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="401">
@@ -6013,7 +6013,7 @@
         <v>فيلم الفارس الأسود تدور أحداثه في مدينة غوثام.</v>
       </c>
       <c r="D401" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="402">
@@ -6027,7 +6027,7 @@
         <v>نادي القتال من بطولة براد بيت.</v>
       </c>
       <c r="D402" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="403">
@@ -6041,7 +6041,7 @@
         <v>الجميع يحتاج إلى أفضل صديق هو من فيديو على يوتيوب.</v>
       </c>
       <c r="D403" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="404">
@@ -6055,7 +6055,7 @@
         <v>دكتور هو يسافر وحده</v>
       </c>
       <c r="D404" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="405">
@@ -6069,7 +6069,7 @@
         <v>هيلين هانت كانت في 5 أفلام حيث أكلت هيلين هانت برغر.</v>
       </c>
       <c r="D405" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="406">
@@ -6083,7 +6083,7 @@
         <v>جيف بيزوس هو مؤسس فيسبوك.</v>
       </c>
       <c r="D406" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="407">
@@ -6097,7 +6097,7 @@
         <v>ألبوم تينا تيرنر "كسر كل القواعد" حصل على شهادة الذهب.</v>
       </c>
       <c r="D407" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="408">
@@ -6111,7 +6111,7 @@
         <v>لم يقم دوك هوليداي بفتح عيادة في أتلانتا.</v>
       </c>
       <c r="D408" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="409">
@@ -6125,7 +6125,7 @@
         <v>علم النفس هو تخصص ضمن الأكاديمية.</v>
       </c>
       <c r="D409" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="410">
@@ -6139,7 +6139,7 @@
         <v>ناريندرا مودي هو سياسي هندي.</v>
       </c>
       <c r="D410" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="411">
@@ -6153,7 +6153,7 @@
         <v>لقد تم تجسيد شخصية الطبيب من قبل عدة مؤدين.</v>
       </c>
       <c r="D411" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="412">
@@ -6167,7 +6167,7 @@
         <v>كابلان يريد أن يرى رؤيته تتحقق.</v>
       </c>
       <c r="D412" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="413">
@@ -6181,7 +6181,7 @@
         <v>تم إعطاؤه تقريرًا يعرض ما يريده سنويًا.</v>
       </c>
       <c r="D413" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="414">
@@ -6195,7 +6195,7 @@
         <v>لقد سمحت هذه القوانين الكوشير للحيوانات المحمية بالازدهار.</v>
       </c>
       <c r="D414" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="415">
@@ -6209,7 +6209,7 @@
         <v>يخطط أبى لويل للاستفادة من استجواب ستار.</v>
       </c>
       <c r="D415" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="416">
@@ -6223,7 +6223,7 @@
         <v>يجب إعادة هيكلة الصحافة للتخلص من أي تسريبات.</v>
       </c>
       <c r="D416" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="417">
@@ -6237,7 +6237,7 @@
         <v>يريد كلايمان أن يعتقد الآخرون أنه متماسك.</v>
       </c>
       <c r="D417" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="418">
@@ -6251,7 +6251,7 @@
         <v>سيدير العالم بشكل جيد مع التوجيه الصحيح في الاقتصاد الكلي.</v>
       </c>
       <c r="D418" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="419">
@@ -6265,7 +6265,7 @@
         <v>لا تستطيع جويس العثور على القطعة التي تبحث عنها.</v>
       </c>
       <c r="D419" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="420">
@@ -6279,7 +6279,7 @@
         <v>جعل المؤلف السؤال غامضًا عن قصد.</v>
       </c>
       <c r="D420" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="421">
@@ -6293,7 +6293,7 @@
         <v>المرأة ليس لديها أمنية موت.</v>
       </c>
       <c r="D421" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="422">
@@ -6307,7 +6307,7 @@
         <v>على الرغم من بعض الآمال الكبيرة في بدايته الواعدة، إلا أن العلامة التجارية شهدت تراجعًا مستمرًا.</v>
       </c>
       <c r="D422" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="423">
@@ -6321,7 +6321,7 @@
         <v>جميع كلاب الباسيت هوند تتمتع بحس جيد.</v>
       </c>
       <c r="D423" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="424">
@@ -6335,7 +6335,7 @@
         <v>أحب جميع سيارات مازدا.</v>
       </c>
       <c r="D424" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="425">
@@ -6349,7 +6349,7 @@
         <v>يجب أن يتم الاستماع إليهم.</v>
       </c>
       <c r="D425" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="426">
@@ -6363,7 +6363,7 @@
         <v>كانوا بحاجة لمعرفة اسم الرجل.</v>
       </c>
       <c r="D426" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="427">
@@ -6377,7 +6377,7 @@
         <v>كانت هناك حاجة لإعادة صياغة بيان غرينسبان.</v>
       </c>
       <c r="D427" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="428">
@@ -6391,7 +6391,7 @@
         <v>أراد المؤلف أن يتلقى ريغان الانتقادات.</v>
       </c>
       <c r="D428" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="429">
@@ -6405,7 +6405,7 @@
         <v>المرأة عزباء.</v>
       </c>
       <c r="D429" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="430">
@@ -6419,7 +6419,7 @@
         <v>كاتز يريد بشدة أن يتم نشره في صحيفة واشنطن بوست.</v>
       </c>
       <c r="D430" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="431">
@@ -6433,7 +6433,7 @@
         <v>مايكروسوفت هي لاعب قوي في سوقها، ولديها القدرة على تحييد المشكلات.</v>
       </c>
       <c r="D431" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="432">
@@ -6447,7 +6447,7 @@
         <v>سبرينغر ليس شائعًا.</v>
       </c>
       <c r="D432" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="433">
@@ -6461,7 +6461,7 @@
         <v>يجب على الجميع أن يهتموا بشؤونهم الخاصة فيما يتعلق بحياتها العاطفية.</v>
       </c>
       <c r="D433" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="434">
@@ -6475,7 +6475,7 @@
         <v>بني إنجليس شريطًا طويلاً من الطريق السريع</v>
       </c>
       <c r="D434" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="435">
@@ -6489,7 +6489,7 @@
         <v>لا يزال هناك من يريد تقديم الهدايا.</v>
       </c>
       <c r="D435" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="436">
@@ -6503,7 +6503,7 @@
         <v>كان الجنود يريدون مساعدتها</v>
       </c>
       <c r="D436" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="437">
@@ -6517,7 +6517,7 @@
         <v>ماكين يريد زيادة الضرائب على الجميع.</v>
       </c>
       <c r="D437" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="438">
@@ -6531,7 +6531,7 @@
         <v>تنشأ البطلة وإخوتها في اليابان.</v>
       </c>
       <c r="D438" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="439">
@@ -6545,7 +6545,7 @@
         <v>لقد اتبع المفرج عنه عن parole القانون دائمًا.</v>
       </c>
       <c r="D439" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="440">
@@ -6559,7 +6559,7 @@
         <v>جيسي فنتورا لا يريد بات أن يفوز بالترشيح.</v>
       </c>
       <c r="D440" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="441">
@@ -6573,7 +6573,7 @@
         <v>تقوم التكنولوجيا الجديدة بإدخال الأخبار العاجلة إلى الصحيفة.</v>
       </c>
       <c r="D441" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="442">
@@ -6587,7 +6587,7 @@
         <v>إنها كمية صغيرة، مقارنة بما هو مطلوب.</v>
       </c>
       <c r="D442" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="443">
@@ -6601,7 +6601,7 @@
         <v>تحتاج نقابة الكيركبازرز إلى المال منه</v>
       </c>
       <c r="D443" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="444">
@@ -6615,7 +6615,7 @@
         <v>غالبًا ما يسعى الجمهوريون إلى رد الجميل لمواطنيهم الفقراء عندما يكون هناك عجز في الميزانية.</v>
       </c>
       <c r="D444" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="445">
@@ -6629,7 +6629,7 @@
         <v>تسعى شركة بوينت كاست لصنع أول منتج برمجي لها كشركة.</v>
       </c>
       <c r="D445" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="446">
@@ -6643,7 +6643,7 @@
         <v>ركز بيتلهايم على أهمية أن تكون مرشدًا.</v>
       </c>
       <c r="D446" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="447">
@@ -6657,7 +6657,7 @@
         <v>النقاد الذين يشعرون بالذعر من إنقاذ الرواية اليوم أرادوا قتلها قبل 40 عامًا.</v>
       </c>
       <c r="D447" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="448">
@@ -6671,7 +6671,7 @@
         <v>كانت مسيرة بولوك المهنية قصيرة</v>
       </c>
       <c r="D448" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="449">
@@ -6685,7 +6685,7 @@
         <v>المرأة تلبي حاجة الرجل للسرعة</v>
       </c>
       <c r="D449" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="450">
@@ -6699,7 +6699,7 @@
         <v>قطع أنظمة المدفوعات الاجتماعية يولد ضغطًا على القادة الوطنيين.</v>
       </c>
       <c r="D450" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="451">
@@ -6713,7 +6713,7 @@
         <v>تفرض الحكومات الأوروبية ضرائب كبيرة على خدمات الاتصال العائد.</v>
       </c>
       <c r="D451" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="452">

--- a/Annotations/annotations_AR.xlsx
+++ b/Annotations/annotations_AR.xlsx
@@ -13029,7 +13029,7 @@
         <v>الاتفاق يتماشى مع لوائح نافتا.</v>
       </c>
       <c r="D902" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="903">
@@ -13043,7 +13043,7 @@
         <v>أفضل طريقة لإجراء حملة تسويق عبر البريد الإلكتروني هي ببساطة أن تتصرف بشكل عشوائي. قم بإعداد قائمة بالعملاء. إزعاج الناس هو وسيلة رائعة للحصول على متابعين. نشأت تسويق البريد الإلكتروني في الثمانينيات.</v>
       </c>
       <c r="D903" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="904">
@@ -13057,7 +13057,7 @@
         <v>لا يوجد أعضاء من نيويورك</v>
       </c>
       <c r="D904" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="905">
@@ -13071,7 +13071,7 @@
         <v>كان الجرو ليصبح أكبر بسنة.</v>
       </c>
       <c r="D905" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="906">
@@ -13085,7 +13085,7 @@
         <v>نشر مستخدم يوتيوب Streetcap1 سلسلة من الصور الملتقطة من المركبة القمرية الصينية تشانغ'e 4.</v>
       </c>
       <c r="D906" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="907">
@@ -13099,7 +13099,7 @@
         <v>يمكن إدراك حالة التشتت من خلال الحواس البصرية.</v>
       </c>
       <c r="D907" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="908">
@@ -13113,7 +13113,7 @@
         <v>مدرسة راي سانت أنطوني لا تسمح للأولاد الذين يبلغون من العمر 9 سنوات.</v>
       </c>
       <c r="D908" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="909">
@@ -13127,7 +13127,7 @@
         <v>اقترح الحاكم مضاعفة جهود بناء الأمة.</v>
       </c>
       <c r="D909" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="910">
@@ -13141,7 +13141,7 @@
         <v>هناك أقل من عشرة أشخاص قتلوا.</v>
       </c>
       <c r="D910" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="911">
@@ -13155,7 +13155,7 @@
         <v>لون الخريف لا يعتمد على هطول الأمطار.</v>
       </c>
       <c r="D911" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="912">
@@ -13169,7 +13169,7 @@
         <v>جوسيف كالا ليس رئيس الفلبين</v>
       </c>
       <c r="D912" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="913">
@@ -13183,7 +13183,7 @@
         <v>تأخذ المناطق المشتركة في الاعتبار تصميم المدن.</v>
       </c>
       <c r="D913" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="914">
@@ -13197,7 +13197,7 @@
         <v>من ماديسون، يستغرق الأمر أقل من 5 ساعات للقيادة إلى.</v>
       </c>
       <c r="D914" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="915">
@@ -13211,7 +13211,7 @@
         <v>تجاوزت لعبة هيل بليد لعبة تايمز إند في التقييمات.</v>
       </c>
       <c r="D915" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="916">
@@ -13225,7 +13225,7 @@
         <v>كان الطبيب يتجه للتنزه عندما حدث كل هذا.</v>
       </c>
       <c r="D916" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="917">
@@ -13239,7 +13239,7 @@
         <v>تشاك رايت كان واحدًا من العديد من مغني الخلفية لفرقة كوايت رويت.</v>
       </c>
       <c r="D917" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="918">
@@ -13253,7 +13253,7 @@
         <v>لا يمكن أن تستوعب القاعة المركزية أكثر من 10,014 شخصًا لمباريات كرة السلة.</v>
       </c>
       <c r="D918" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="919">
@@ -13267,7 +13267,7 @@
         <v>سيتم فحص عدد قليل من المحامين الدستوريين.</v>
       </c>
       <c r="D919" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="920">
@@ -13785,7 +13785,7 @@
         <v>نانسي هارت دوغلاس لم تكن كشافاً تحت قيادة الجنرال ستونوال جاكسون.</v>
       </c>
       <c r="D956" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="957">
@@ -13799,7 +13799,7 @@
         <v>تايلاند وكمبوديا لا تستطيعان التوصل إلى اتفاق بشأن ملكية معبد.</v>
       </c>
       <c r="D957" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="958">
@@ -13813,7 +13813,7 @@
         <v>أكثر من ثلاثة أسابيع بعد جريمة قتل باميلا، كانت لويس ريس قيد الاحتجاز من قبل الشرطة.</v>
       </c>
       <c r="D958" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="959">
@@ -13827,7 +13827,7 @@
         <v>سلفات الصوديوم له طعم</v>
       </c>
       <c r="D959" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="960">
@@ -13841,7 +13841,7 @@
         <v>جينسن آكلس ليس معروفًا بأدواره في التلفزيون مثل جيسون تيغ في سمولفيل.</v>
       </c>
       <c r="D960" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="961">
@@ -13855,7 +13855,7 @@
         <v>تم إخراج فيلم "أرخص بكثير عند شراء الدزينة" بواسطة قطة.</v>
       </c>
       <c r="D961" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="962">
@@ -13869,7 +13869,7 @@
         <v>أخرج الأخوان كوين فيلم إثارة.</v>
       </c>
       <c r="D962" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="963">
@@ -13883,7 +13883,7 @@
         <v>محمد كان نبيًا.</v>
       </c>
       <c r="D963" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="964">
@@ -13897,7 +13897,7 @@
         <v>تلعب فينوس ويليامز مباريات فردية في التنس.</v>
       </c>
       <c r="D964" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="965">
@@ -13911,7 +13911,7 @@
         <v>بطريقة مهنية، لعبت بريتاني ميرفي دور البطولة في فيلم.</v>
       </c>
       <c r="D965" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="966">
@@ -13925,7 +13925,7 @@
         <v>تم استعمار برمودا في عام 1609.</v>
       </c>
       <c r="D966" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="967">
@@ -13939,7 +13939,7 @@
         <v>أصدر هاري ستايلز وزملاؤه في الفرقة ألبوم الفولك "ذكريات منتصف الليل".</v>
       </c>
       <c r="D967" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="968">
@@ -13953,7 +13953,7 @@
         <v>الوحوش الرائعة وأين تجدها هو كتاب عن الطبيعة.</v>
       </c>
       <c r="D968" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="969">
@@ -13967,7 +13967,7 @@
         <v>ميركا فيدرر هي لاعبة تنس كانت تلعب بشكل احترافي ولم تعد تلعب بعد الآن.</v>
       </c>
       <c r="D969" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="970">
@@ -13981,7 +13981,7 @@
         <v>اسم ميلاد بيغ شو هو بول دونالد وايت الثاني، على الرغم من أنه يستخدم بيغ شو في مصارعة المحترفين.</v>
       </c>
       <c r="D970" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="971">
@@ -13995,7 +13995,7 @@
         <v>ظهرت ليزلي أوجامز في فيلم من إخراج تيم ميلر.</v>
       </c>
       <c r="D971" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="972">
@@ -14009,7 +14009,7 @@
         <v>تلعب فينوس ويليامز مباريات فردية في التنس.</v>
       </c>
       <c r="D972" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="973">
@@ -14023,7 +14023,7 @@
         <v>درو باريمور مثلت في فيلم.</v>
       </c>
       <c r="D973" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="974">
@@ -14037,7 +14037,7 @@
         <v>كانت قصة لعبة غير مستندة إلى مواد منشورة سابقًا مما سمح لها بالتنافس على جائزة أفضل سيناريو أصلي.</v>
       </c>
       <c r="D974" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="975">
@@ -14051,7 +14051,7 @@
         <v>مالالا يوسفزاي هي مدافعة عن حق المرأة في التعليم.</v>
       </c>
       <c r="D975" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="976">
@@ -14065,7 +14065,7 @@
         <v>باي هو رقم.</v>
       </c>
       <c r="D976" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="977">
@@ -14079,7 +14079,7 @@
         <v>نسبة عالية من الناس في أذربيجان متعلمين.</v>
       </c>
       <c r="D977" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="978">
@@ -14093,7 +14093,7 @@
         <v>إيطاليا لديها عنوان رسمي أطول.</v>
       </c>
       <c r="D978" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="979">
@@ -14107,7 +14107,7 @@
         <v>مات غرينينغ فاز بجوائز إيمي برايم تايم عن مسلسل ذا سيمبسونز.</v>
       </c>
       <c r="D979" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="980">
@@ -14121,7 +14121,7 @@
         <v>محمد مهم للدين.</v>
       </c>
       <c r="D980" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="981">
@@ -14135,7 +14135,7 @@
         <v>كان جون ماكنرو لاعب تنس.</v>
       </c>
       <c r="D981" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="982">
@@ -14149,7 +14149,7 @@
         <v>بلاك ميرور هو حصان سباق.</v>
       </c>
       <c r="D982" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="983">
@@ -14163,7 +14163,7 @@
         <v>اشتعال النار هو نوع أدبي.</v>
       </c>
       <c r="D983" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="984">
@@ -14177,7 +14177,7 @@
         <v>تم اتهام جون ماكين بالفساد في عام 1989 كجزء من مجموعة كيتينغ الخمسة.</v>
       </c>
       <c r="D984" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="985" xml:space="preserve">
@@ -14197,7 +14197,7 @@
         <v>فاليريان ومدينة الألف كوكب يضم ممثلاً.</v>
       </c>
       <c r="D985" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="986">
@@ -14211,7 +14211,7 @@
         <v>تقوم فينوس ويليامز بلعب مباريات فردية في التنس.</v>
       </c>
       <c r="D986" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="987">
@@ -14225,7 +14225,7 @@
         <v>مارغريت من فالوا كانت لديها أخوات.</v>
       </c>
       <c r="D987" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="988">
@@ -14239,7 +14239,7 @@
         <v>مات غرينينغ فاز بعشر سندويشات لحم بقر إيطالي من أجل عائلة سيمبسون.</v>
       </c>
       <c r="D988" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="989">
@@ -14253,7 +14253,7 @@
         <v>توفر جمعية كتّاب الأغاني في ناشفيل الدولية تعليمًا في صناعة الموسيقى.</v>
       </c>
       <c r="D989" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="990">
@@ -14267,7 +14267,7 @@
         <v>باتمان يبدأ سبق استقلال أمريكا الشمالية.</v>
       </c>
       <c r="D990" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="991">
@@ -14281,7 +14281,7 @@
         <v>كانت قصة لعبة غير مستندة إلى مواد منشورة مسبقًا مما سمح لها بالتقدم لجائزة أفضل سيناريو أصلي.</v>
       </c>
       <c r="D991" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="992">
@@ -14295,7 +14295,7 @@
         <v>بيلي جويل في صناعة الفنون الأدائية.</v>
       </c>
       <c r="D992" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="993">
@@ -14309,7 +14309,7 @@
         <v>تم إصدار "اشتعال النار" في غلاف ورقي.</v>
       </c>
       <c r="D993" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="994">
@@ -14323,7 +14323,7 @@
         <v>برينتني ميرفي مثلت.</v>
       </c>
       <c r="D994" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="995">
@@ -14337,7 +14337,7 @@
         <v>فريق فُو فايترز يصنع الموسيقى.</v>
       </c>
       <c r="D995" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="996">
@@ -14351,7 +14351,7 @@
         <v>بوينغ 777 هي الطائرة التجارية ذات المدى الأبعد في العالم.</v>
       </c>
       <c r="D996" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="997">
@@ -14365,7 +14365,7 @@
         <v>محمد مهم للدين.</v>
       </c>
       <c r="D997" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="998">
@@ -14379,7 +14379,7 @@
         <v>ترانسفورمرز: انتقام الساقطين هو فيلم.</v>
       </c>
       <c r="D998" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="999">
@@ -14393,7 +14393,7 @@
         <v>اسم المسرح لبيغ شو هو بول دونالد وايت الثاني.</v>
       </c>
       <c r="D999" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="1000">
@@ -14407,7 +14407,7 @@
         <v>محمد مهم للدين.</v>
       </c>
       <c r="D1000" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="1001">
@@ -14421,7 +14421,7 @@
         <v>جواكين فينيكس قد أخرج أفلامًا.</v>
       </c>
       <c r="D1001" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
   </sheetData>

--- a/Annotations/annotations_AR.xlsx
+++ b/Annotations/annotations_AR.xlsx
@@ -13281,7 +13281,7 @@
         <v>الكرتون الضعيف أفضل من المتين</v>
       </c>
       <c r="D920" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="921">
@@ -13295,7 +13295,7 @@
         <v>بعض القيم الطبية كبيرة.</v>
       </c>
       <c r="D921" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="922">
@@ -13309,7 +13309,7 @@
         <v>اعتقد إريك أن نيل يبدو أفضل في ملابس العمل بدلاً من الملابس الرسمية.</v>
       </c>
       <c r="D922" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="923">
@@ -13323,7 +13323,7 @@
         <v>تُفقد الوظائف في أمريكا تحت رئاسة الرئيس.</v>
       </c>
       <c r="D923" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="924">
@@ -13337,7 +13337,7 @@
         <v>النمو الاقتصادي هو التركيز الأهم للقائد الأعلى لأرض الأحرار وموطن الشجعان.</v>
       </c>
       <c r="D924" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="925">
@@ -13351,7 +13351,7 @@
         <v>"حيث يتم تقديم إقرار خطي" هو تعبير محدد للغاية.</v>
       </c>
       <c r="D925" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="926">
@@ -13365,7 +13365,7 @@
         <v>السيد ويزل هو شخصية خيالية.</v>
       </c>
       <c r="D926" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="927">
@@ -13379,7 +13379,7 @@
         <v>تم إطلاق النار على الرجال من داخل مبنى كانوا يمرون بجانبه.</v>
       </c>
       <c r="D927" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="928">
@@ -13393,7 +13393,7 @@
         <v>لم يمت الرجل في مكان الحادث.</v>
       </c>
       <c r="D928" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="929">
@@ -13407,7 +13407,7 @@
         <v>نمط التنفس البطيء هو التنفس مرتين والتفكير في عطلة.</v>
       </c>
       <c r="D929" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="930">
@@ -13421,7 +13421,7 @@
         <v>يؤمن الرئيس بضرورة إقامة علاقات قوية مع أوروبا.</v>
       </c>
       <c r="D930" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="931">
@@ -13435,7 +13435,7 @@
         <v>كتب "كل شيء من أجل الحب" من قبل أقل من أربعة أشخاص.</v>
       </c>
       <c r="D931" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="932">
@@ -13449,7 +13449,7 @@
         <v>من ماديسون، يستغرق الوصول إلى هناك أقل من 6 ساعات بالسيارة.</v>
       </c>
       <c r="D932" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="933">
@@ -13463,7 +13463,7 @@
         <v>قواعد الجسر ليست أصغر من قواعد الجزيرة.</v>
       </c>
       <c r="D933" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="934">
@@ -13477,7 +13477,7 @@
         <v>لم يعد هذا العرض يُسمى "جاك هوركهيمر: صائد النجوم"</v>
       </c>
       <c r="D934" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="935">
@@ -13491,7 +13491,7 @@
         <v>العلكة أفضل لفقع الفقاعات.</v>
       </c>
       <c r="D935" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="936">
@@ -13505,7 +13505,7 @@
         <v>لقد حضر هذا المتحدث العديد من الموافقات الملكية.</v>
       </c>
       <c r="D936" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="937">
@@ -13519,7 +13519,7 @@
         <v>على مدى عام واحد، كانت الحكومة الكندية مشغولة في مفاوضات سرية.</v>
       </c>
       <c r="D937" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="938">
@@ -13533,7 +13533,7 @@
         <v>يتم مخاطبة غور كحاكم.</v>
       </c>
       <c r="D938" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="939">
@@ -13547,7 +13547,7 @@
         <v>كان ستريت كاب 1 على القمر عندما نشر صورًا من المركبة القمرية الصينية تشانغ'e 3.</v>
       </c>
       <c r="D939" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="940">
@@ -13561,7 +13561,7 @@
         <v>لم تنشر Change’e 3 مقاطع على يوتيوب.</v>
       </c>
       <c r="D940" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="941">
@@ -13575,7 +13575,7 @@
         <v>تعود الاتجاهات.</v>
       </c>
       <c r="D941" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="942">
@@ -13589,7 +13589,7 @@
         <v>كانت هناك أرصفة في ذهن المزارع.</v>
       </c>
       <c r="D942" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="943">
@@ -13603,7 +13603,7 @@
         <v>بينما زيدينو تشارا هو أطول لاعب في NHL، فإن مايك سفيك ليس من اللاعبين الأطول.</v>
       </c>
       <c r="D943" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="944">
@@ -13617,7 +13617,7 @@
         <v>وصلت أغنية "Holding Back the River" إلى مراتب أعلى في المخططات من ألبوم الفرقة الأول.</v>
       </c>
       <c r="D944" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="945">
@@ -13631,7 +13631,7 @@
         <v>سجل غوردون أكثر من مرة في مباراة أخرى هذا الموسم.</v>
       </c>
       <c r="D945" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="946">
@@ -13645,7 +13645,7 @@
         <v>تم بث قناة بيت تي في لأكثر من ساعتين في المرة الواحدة.</v>
       </c>
       <c r="D946" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="947">
@@ -13659,7 +13659,7 @@
         <v>يوجد أكثر من 10 مدارس في مؤتمر بيغ 12.</v>
       </c>
       <c r="D947" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="948">
@@ -13673,7 +13673,7 @@
         <v>كان متحف كيلفينغروف في غلاسكو في الهند</v>
       </c>
       <c r="D948" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="949">
@@ -13687,7 +13687,7 @@
         <v>لم تكتب أنيت أرتاني جميع أغانيها.</v>
       </c>
       <c r="D949" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="950">
@@ -13701,7 +13701,7 @@
         <v>التقت آمي وآنا مرة أخرى بعد أن التقيا صدفة في المقهى.</v>
       </c>
       <c r="D950" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="951">
@@ -13715,7 +13715,7 @@
         <v>مطار بوب آدامز يقع على بعد خمسة وعشرين ميلاً شرق مطار يامبا فالي الإقليمي.</v>
       </c>
       <c r="D951" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="952">
@@ -13729,7 +13729,7 @@
         <v>ليس الجميع يستحق الرعاية الصحية.</v>
       </c>
       <c r="D952" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="953">
@@ -13743,7 +13743,7 @@
         <v>نيل غوردون ليس شخصًا يرتدي ملابس أنيقة.</v>
       </c>
       <c r="D953" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="954">
@@ -13757,7 +13757,7 @@
         <v>البيان يحتوي على أقل من حوالي 28 كلمة.</v>
       </c>
       <c r="D954" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="955">
@@ -13771,7 +13771,7 @@
         <v>تحدث الجميع لفترات زمنية لا تتجاوز 5 دقائق عن الشخص الذي يليه.</v>
       </c>
       <c r="D955" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="956">

--- a/Annotations/annotations_AR.xlsx
+++ b/Annotations/annotations_AR.xlsx
@@ -7861,7 +7861,7 @@
         <v>لدي خبرة أكبر مع أجهزة الكمبيوتر لذا تحملت العبء الأكبر.</v>
       </c>
       <c r="D533" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="534">
@@ -7875,7 +7875,7 @@
         <v>أعطى الزوج لها مفاتيح لركن الأورشي.</v>
       </c>
       <c r="D534" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="535">
@@ -7889,7 +7889,7 @@
         <v>يمكنني تأجيل هذه المهام حتى بعد الحصة.</v>
       </c>
       <c r="D535" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="536">
@@ -7903,7 +7903,7 @@
         <v>لن يتم إنشاء مناطق تجارية شمالية وجنوبية.</v>
       </c>
       <c r="D536" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="537">
@@ -7917,7 +7917,7 @@
         <v>يحتاج فندق ماكسيم إلى التجديد.</v>
       </c>
       <c r="D537" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="538">
@@ -7931,7 +7931,7 @@
         <v>أوبك قلقة بشأن الاقتصاد.</v>
       </c>
       <c r="D538" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="539">
@@ -7945,7 +7945,7 @@
         <v>لن يتحرك مجلس الشيوخ أبداً بشأن هذا القانون.</v>
       </c>
       <c r="D539" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="540">
@@ -7959,7 +7959,7 @@
         <v>هدف الإدارة هو إنشاء منتجات وخدمات جديدة تلبي احتياجات المستهلكين.</v>
       </c>
       <c r="D540" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="541">
@@ -7973,7 +7973,7 @@
         <v>يريدون تقديم الحجج لأهمية الحرب على الإرهاب.</v>
       </c>
       <c r="D541" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="542">
@@ -7987,7 +7987,7 @@
         <v>لا أريد حتى وصيفة شرف.</v>
       </c>
       <c r="D542" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="543">
@@ -8015,7 +8015,7 @@
         <v>لم تكن ترغب في الذهاب إلى أمريكا، لكنها كانت خائفة من البقاء في بلدها.</v>
       </c>
       <c r="D544" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="545">
@@ -8029,7 +8029,7 @@
         <v>تحاول أن تكتشف ماذا تفعل.</v>
       </c>
       <c r="D545" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="546">
@@ -8043,7 +8043,7 @@
         <v>ثمن الحرية هو الحرية في فعل ما تريد.</v>
       </c>
       <c r="D546" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="547">
@@ -8057,7 +8057,7 @@
         <v>يمكنك فعل أي شيء تريده.</v>
       </c>
       <c r="D547" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="548">
@@ -8071,7 +8071,7 @@
         <v>كان يريد الحصول على المعلومات.</v>
       </c>
       <c r="D548" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="549">
@@ -8085,7 +8085,7 @@
         <v>من الجيد الحصول على مساعدة مجلس المدرسة.</v>
       </c>
       <c r="D549" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="550">
@@ -8099,7 +8099,7 @@
         <v>كانت المحادثة تدور حول موضوع اهتمام الصحفي.</v>
       </c>
       <c r="D550" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="551">
@@ -8113,7 +8113,7 @@
         <v>الرواية تتحدث عن امرأة غير مرغوب فيها في منزلها.</v>
       </c>
       <c r="D551" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="552">
@@ -8127,7 +8127,7 @@
         <v>المدرسة تبني قاعة جديدة.</v>
       </c>
       <c r="D552" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="553">
@@ -8141,7 +8141,7 @@
         <v>الضحية لا ترغب في الإبلاغ عن الجريمة.</v>
       </c>
       <c r="D553" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="554">
@@ -8155,7 +8155,7 @@
         <v>تريد الحكومة إنشاء نظام للرعاية الصحية.</v>
       </c>
       <c r="D554" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="555">
@@ -8169,7 +8169,7 @@
         <v>هل نعرف كيف نعطي أطفالنا الأدوية؟</v>
       </c>
       <c r="D555" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="556">
@@ -8183,7 +8183,7 @@
         <v>كان لديهم الفرصة لفعل أي شيء يريدونه.</v>
       </c>
       <c r="D556" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="557">
@@ -8197,7 +8197,7 @@
         <v>لدى المحامين فرصة كبيرة لمساعدة الفقراء.</v>
       </c>
       <c r="D557" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="558">
@@ -8211,7 +8211,7 @@
         <v>تم إلغاء قانون سياسة الطاقة الفيدرالية لعام 1992 في عام 2005.</v>
       </c>
       <c r="D558" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="559">
@@ -8225,7 +8225,7 @@
         <v>أنت هنا.</v>
       </c>
       <c r="D559" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="560">
@@ -8239,7 +8239,7 @@
         <v>تحتاج خدمات التجزئة إلى عقود.</v>
       </c>
       <c r="D560" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="561">
@@ -8253,7 +8253,7 @@
         <v>قال نولتي إنه لم يرغب أبداً في أن يكون محامياً.</v>
       </c>
       <c r="D561" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="562">
@@ -8267,7 +8267,7 @@
         <v>الدولة معروضة للبيع.</v>
       </c>
       <c r="D562" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="563">
@@ -8281,7 +8281,7 @@
         <v>يريد العلماء معرفة ما يفعله صانعو السياسات.</v>
       </c>
       <c r="D563" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="564">
@@ -8295,7 +8295,7 @@
         <v>يمكن أن يشارك أصحاب المصلحة في عملية التخطيط.</v>
       </c>
       <c r="D564" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="565">
@@ -8309,7 +8309,7 @@
         <v>كان تغيير مزاجها بسبب أصدقائها.</v>
       </c>
       <c r="D565" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="566">
@@ -8323,7 +8323,7 @@
         <v>هناك قدر كبير من الخلاف بين الأحزاب السياسية حول الحاجة إلى نظام رعاية صحية يعتمد على دفع واحد.</v>
       </c>
       <c r="D566" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="567">
@@ -8337,7 +8337,7 @@
         <v>لديك مشكلة حقيقية.</v>
       </c>
       <c r="D567" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="568">
@@ -8351,7 +8351,7 @@
         <v>العب بعجلة تحتوي على 0 و00.</v>
       </c>
       <c r="D568" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="569">
@@ -8365,7 +8365,7 @@
         <v>لا أستطيع أن أخبرك بما فعلته.</v>
       </c>
       <c r="D569" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="570">
@@ -8379,7 +8379,7 @@
         <v>المرأة لا تعرف ما تريده.</v>
       </c>
       <c r="D570" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="571">
@@ -8393,7 +8393,7 @@
         <v>هو دائماً يريد أن يكون على حق.</v>
       </c>
       <c r="D571" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="572">
@@ -8407,7 +8407,7 @@
         <v>البرنامج الجديد ضروري لحل المشكلة.</v>
       </c>
       <c r="D572" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="573">
@@ -8421,7 +8421,7 @@
         <v>هل تريد البقاء؟</v>
       </c>
       <c r="D573" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="574">
@@ -8435,7 +8435,7 @@
         <v>تحتاج السلطة الشرطية إلى تنفيذ القوانين.</v>
       </c>
       <c r="D574" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="575">
@@ -8449,7 +8449,7 @@
         <v>لم تفعل الحكومة ما أراده الشعب.</v>
       </c>
       <c r="D575" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="576">
@@ -8463,7 +8463,7 @@
         <v>ستجذب المنطقة الأشخاص الذين يرغبون في القدوم إليها.</v>
       </c>
       <c r="D576" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="577">
@@ -8477,7 +8477,7 @@
         <v>هو يحاول أن يصبح غنيًا.</v>
       </c>
       <c r="D577" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="578">
@@ -8491,7 +8491,7 @@
         <v>لم يكن ينوي بدء حرب.</v>
       </c>
       <c r="D578" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="579">
@@ -8519,7 +8519,7 @@
         <v>هناك حاجة لمبادرة جديدة.</v>
       </c>
       <c r="D580" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="581">
@@ -8533,7 +8533,7 @@
         <v>يجب أن تعرف أسماء اللاعبين.</v>
       </c>
       <c r="D581" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="582">
@@ -8547,7 +8547,7 @@
         <v>يحتاج الناس إلى الحصول على تعليم جيد.</v>
       </c>
       <c r="D582" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="583">
@@ -8561,7 +8561,7 @@
         <v>نحتاج إلى النظر في تكاليف المكونات الأخرى للنظام.</v>
       </c>
       <c r="D583" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="584">
@@ -8575,7 +8575,7 @@
         <v>لقد حسم أمره بشأن ما يريد القيام به.</v>
       </c>
       <c r="D584" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="585">
@@ -8589,7 +8589,7 @@
         <v>يجب على الحكومة أن تفعل شيئًا حيال الاقتصاد.</v>
       </c>
       <c r="D585" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="586">
@@ -8603,7 +8603,7 @@
         <v>هو شخص ذو أخلاق عالية.</v>
       </c>
       <c r="D586" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="587">
@@ -8617,7 +8617,7 @@
         <v>أريد أن أكون مسؤولاً عن العمليات.</v>
       </c>
       <c r="D587" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="588">
@@ -8631,7 +8631,7 @@
         <v>تريد الحكومة الأمريكية السماح بتدفق المعلومات بحرية.</v>
       </c>
       <c r="D588" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="589">
@@ -8645,7 +8645,7 @@
         <v>لا تحتاج إلى تصريح للذهاب إلى البحيرة.</v>
       </c>
       <c r="D589" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="590">
@@ -8659,7 +8659,7 @@
         <v>هناك حاجة إلى مراجعة شاملة للأدبيات حول هذا الموضوع.</v>
       </c>
       <c r="D590" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="591">
@@ -8673,7 +8673,7 @@
         <v>لا أريد الذهاب.</v>
       </c>
       <c r="D591" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="592">
@@ -8687,7 +8687,7 @@
         <v>تنويع مصادر الطاقة أمر مهم لأمن الطاقة.</v>
       </c>
       <c r="D592" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="593">
@@ -8701,7 +8701,7 @@
         <v>أرادت الآنسة باجيت أن تقول إن جون كان محظوظًا.</v>
       </c>
       <c r="D593" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="594">
@@ -8715,7 +8715,7 @@
         <v>رئيس مجلس المدرسة المحلي في وضع يمكنه من القيام بما يريد.</v>
       </c>
       <c r="D594" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="595">
@@ -8729,7 +8729,7 @@
         <v>يجب أن تكون هناك مناقشة.</v>
       </c>
       <c r="D595" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="596">
@@ -8743,7 +8743,7 @@
         <v>يريد الدوثراكي غزو مدينة كارت.</v>
       </c>
       <c r="D596" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="597">
@@ -8757,7 +8757,7 @@
         <v>هناك شيء يجب القيام به حيال ذلك.</v>
       </c>
       <c r="D597" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="598">
@@ -8771,7 +8771,7 @@
         <v>الفريق الجديد ملتزم بما يحاول المدرب تحقيقه.</v>
       </c>
       <c r="D598" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="599">
@@ -8785,7 +8785,7 @@
         <v>كنت أكثر انفتاحًا معها عندما لم أكن متوترًا.</v>
       </c>
       <c r="D599" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="600">
@@ -8799,7 +8799,7 @@
         <v>التغيير مطلوب في المنظمة.</v>
       </c>
       <c r="D600" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="601">
@@ -8813,7 +8813,7 @@
         <v>الاختبار غير موثوق.</v>
       </c>
       <c r="D601" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="602">

--- a/Annotations/annotations_AR.xlsx
+++ b/Annotations/annotations_AR.xlsx
@@ -6727,7 +6727,7 @@
         <v>تدرك الحكومة الفيدرالية أن أموال الكوارث مطلوبة بشدة.</v>
       </c>
       <c r="D452" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="453">
@@ -6741,7 +6741,7 @@
         <v>أنا سعيد تمامًا بكيف تسير الأمور.</v>
       </c>
       <c r="D453" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="454">
@@ -6755,7 +6755,7 @@
         <v>بعضهم يريد التخلي عن المدعين العامين الخاصين.</v>
       </c>
       <c r="D454" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="455">
@@ -6769,7 +6769,7 @@
         <v>أريد أن أجد نار غابرييل؛ إنها المفضلة لدي.</v>
       </c>
       <c r="D455" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="456">
@@ -6783,7 +6783,7 @@
         <v>كانت لدى LSC شكوك حول فعالية الإرشادات المقترحة.</v>
       </c>
       <c r="D456" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="457">
@@ -6797,7 +6797,7 @@
         <v>تومي كان يريد حقًا أن يعرف.</v>
       </c>
       <c r="D457" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="458">
@@ -6811,7 +6811,7 @@
         <v>ستحاول هذه المراجعة دحض السبب وراء التدخل.</v>
       </c>
       <c r="D458" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="459">
@@ -6825,7 +6825,7 @@
         <v>من المستحيل معرفة ما إذا كانت التشريعات فعالة.</v>
       </c>
       <c r="D459" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="460">
@@ -6839,7 +6839,7 @@
         <v>نظرة إلى ما تحتويه العلب جعلته يشعر بالغثيان.</v>
       </c>
       <c r="D460" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="461">
@@ -6853,7 +6853,7 @@
         <v>كانت متوترة رغم أنها لم تكن تريد ذلك.</v>
       </c>
       <c r="D461" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="462">
@@ -6867,7 +6867,7 @@
         <v>ابني يريد حقًا أن يكون لديه كلب.</v>
       </c>
       <c r="D462" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="463">
@@ -6881,7 +6881,7 @@
         <v>تزداد المطالب على التدريب والإشراف مع وجود مواقع متعددة.</v>
       </c>
       <c r="D463" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="464">
@@ -6895,7 +6895,7 @@
         <v>بينما كان يحب بيئته بشكل عام، أراد أن يغادر قريبًا لتجنب سيول الخريف.</v>
       </c>
       <c r="D464" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="465">
@@ -6909,7 +6909,7 @@
         <v>حاول سبوك الغش على زوجته.</v>
       </c>
       <c r="D465" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="466">
@@ -6923,7 +6923,7 @@
         <v>كان من الضروري تحديد سعر.</v>
       </c>
       <c r="D466" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="467">
@@ -6937,7 +6937,7 @@
         <v>زوجي سعيد بترك لي العناية بالزهور، بينما يحافظ على العشب بالطريقة التي يحبها.</v>
       </c>
       <c r="D467" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="468">
@@ -6951,7 +6951,7 @@
         <v>لقد أفسدوا حقًا لم شمل عائلتنا.</v>
       </c>
       <c r="D468" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="469">
@@ -6965,7 +6965,7 @@
         <v>كنت أرغب في شراء منزل مع شرفة، لكنني قررت الحصول على واحد بدونها.</v>
       </c>
       <c r="D469" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="470">
@@ -6979,7 +6979,7 @@
         <v>الحزب يريد منه أن يغادر في أسرع وقت ممكن.</v>
       </c>
       <c r="D470" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="471">
@@ -6993,7 +6993,7 @@
         <v>قررت أنني لا أحتاج إلى الأكل.</v>
       </c>
       <c r="D471" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="472">
@@ -7007,7 +7007,7 @@
         <v>يريد فيرنا معرفة ما إذا كان كَال سيذهب.</v>
       </c>
       <c r="D472" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="473">
@@ -7021,7 +7021,7 @@
         <v>لم يكن هناك عملاء مستعدون للكذب من أجل كلينتون في أي حالة.</v>
       </c>
       <c r="D473" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="474">
@@ -7035,7 +7035,7 @@
         <v>أردنا تحويل الأموال إلى لوينسكي.</v>
       </c>
       <c r="D474" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="475">
@@ -7049,7 +7049,7 @@
         <v>تتزامن احتياجات الوظائف والدعوة دائمًا.</v>
       </c>
       <c r="D475" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="476">
@@ -7063,7 +7063,7 @@
         <v>لم يرغب درو في الإساءة إلى شانون.</v>
       </c>
       <c r="D476" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="477">
@@ -7077,7 +7077,7 @@
         <v>إنهم يجعلون عملية لم شمل العائلة سهلة حقًا.</v>
       </c>
       <c r="D477" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="478">
@@ -7091,7 +7091,7 @@
         <v>آمل أن أراه يومًا ما.</v>
       </c>
       <c r="D478" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="479">
@@ -7105,7 +7105,7 @@
         <v>خلال هذه الفترة، لم يرغب عائلة بوش في أي شيء يتعلق بي.</v>
       </c>
       <c r="D479" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="480">
@@ -7119,7 +7119,7 @@
         <v>نحتاج إلى تذكر بعض الأفكار..</v>
       </c>
       <c r="D480" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="481">
@@ -7133,7 +7133,7 @@
         <v>كان عالم الفلك في حيرة من أمره بسبب سؤال لماذا يرغب الناس في الفحم والنفط على الرغم من أنهم قد ذهبوا إلى الفضاء، وسأل عن أسباب هذا الارتباك.</v>
       </c>
       <c r="D481" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="482">
@@ -7147,7 +7147,7 @@
         <v>يجب أن تكون لدى مكتب المساءلة الحكومية ومكاتب المفتشين العامين علاقات قوية.</v>
       </c>
       <c r="D482" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="483">
@@ -7161,7 +7161,7 @@
         <v>شكراً لك على إصرارك في تذكيري كلما حاولت أن أكون عاطفيًا.</v>
       </c>
       <c r="D483" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="484">
@@ -7175,7 +7175,7 @@
         <v>نريد أطفالاً.</v>
       </c>
       <c r="D484" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="485">
@@ -7189,7 +7189,7 @@
         <v>كان لدينا الرغبة في خلق بعض الأمل من خلال شعار HRC.</v>
       </c>
       <c r="D485" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="486">
@@ -7203,7 +7203,7 @@
         <v>لقد قمت بتعبيد ممر سيارتي بالكامل في الربيع التالي.</v>
       </c>
       <c r="D486" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="487">
@@ -7217,7 +7217,7 @@
         <v>جاكسون يحتاج إلى مساعدة</v>
       </c>
       <c r="D487" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="488">
@@ -7231,7 +7231,7 @@
         <v>تم التخطيط للمرحلة الثانية في نهاية القرن السابع عشر.</v>
       </c>
       <c r="D488" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="489">
@@ -7245,7 +7245,7 @@
         <v>كنت بحاجة إلى المغادرة.</v>
       </c>
       <c r="D489" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="490">
@@ -7259,7 +7259,7 @@
         <v>المقالة في المجلة هي المكان الذي قرأت فيه ذلك.</v>
       </c>
       <c r="D490" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="491">
@@ -7273,7 +7273,7 @@
         <v>جيلدر لا يحتاج إلى أي عذر لكتابة الكتابات الفنية.</v>
       </c>
       <c r="D491" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="492">
@@ -7301,7 +7301,7 @@
         <v>يحتاج إلى التدوير باستمرار ودقيق ضمن خمس دقائق.</v>
       </c>
       <c r="D493" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="494">
@@ -7315,7 +7315,7 @@
         <v>كانوا يعرفون قوة أن يكونوا مطلعين.</v>
       </c>
       <c r="D494" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="495">
@@ -7329,7 +7329,7 @@
         <v>كان من الصعب العثور على مكان مكتبه.</v>
       </c>
       <c r="D495" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="496">
@@ -7343,7 +7343,7 @@
         <v>أعتقد أنني أريد أن أكون هو.</v>
       </c>
       <c r="D496" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="497">
@@ -7357,7 +7357,7 @@
         <v>هو يحتاج إلى الوقت.</v>
       </c>
       <c r="D497" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="498">
@@ -7371,7 +7371,7 @@
         <v>كان السكان يريدون استلام بريدهم في الساعة 8:00 صباحًا.</v>
       </c>
       <c r="D498" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="499">
@@ -7385,7 +7385,7 @@
         <v>لأنهم كانوا هندوسًا، كانت حزب المؤتمر بقيادة نهرو يقوده الاشتراكيون.</v>
       </c>
       <c r="D499" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="500">
@@ -7399,7 +7399,7 @@
         <v>كانت سينثيا تعاني من حساسية تجاه العشب، ولم تكن تلمسه.</v>
       </c>
       <c r="D500" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="501">
@@ -7413,7 +7413,7 @@
         <v>قصف الدول يؤثر سلبًا على معدل تأييدك.</v>
       </c>
       <c r="D501" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="502">
@@ -7427,7 +7427,7 @@
         <v>حذرت فريدلوند-هيو من محاولة الظهور على حق بشكل مفرط.</v>
       </c>
       <c r="D502" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="503">
@@ -7441,7 +7441,7 @@
         <v>في الاتحاد السوفيتي، هناك العديد من الثقافات المختلفة التي تحاول التعايش في بلد واحد.</v>
       </c>
       <c r="D503" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="504">
@@ -7455,7 +7455,7 @@
         <v>للأسف، لا أستطيع ارتداء ما أريد أثناء العمل من المنزل.</v>
       </c>
       <c r="D504" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="505">
@@ -7469,7 +7469,7 @@
         <v>أريدك أن تكون حراً في اتخاذ الخيارات التي ترغب بها.</v>
       </c>
       <c r="D505" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="506">
@@ -7483,7 +7483,7 @@
         <v>يجب عليك أن تتابع الشوارع المرصوفة بالحصى الرئيسية.</v>
       </c>
       <c r="D506" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="507">
@@ -7497,7 +7497,7 @@
         <v>أعلم أن بنما تأخذ المخدرات على محمل الجد.</v>
       </c>
       <c r="D507" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="508">
@@ -7511,7 +7511,7 @@
         <v>يمكن استخدام الاختبار المرفق لتشخيص المشكلات الطبية.</v>
       </c>
       <c r="D508" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="509">
@@ -7525,7 +7525,7 @@
         <v>أريد أن أكون جزءًا من الإثارة</v>
       </c>
       <c r="D509" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="510">
@@ -7539,7 +7539,7 @@
         <v>يريد الرئيس الحفاظ على قوة المهمة.</v>
       </c>
       <c r="D510" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="511">
@@ -7553,7 +7553,7 @@
         <v>برمان يبحر عبر المحيط في رحلة روحية.</v>
       </c>
       <c r="D511" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="512">
@@ -7567,7 +7567,7 @@
         <v>أريد أن أخبرها ألا تقول ذلك.</v>
       </c>
       <c r="D512" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="513">
@@ -7581,7 +7581,7 @@
         <v>سأجبر إميلي على أن تكون بالطريقة التي أريدها.</v>
       </c>
       <c r="D513" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="514">
@@ -7595,7 +7595,7 @@
         <v>لم يرغب المؤيدون للاختيار في السبعينيات في الارتباط بالحركة النسوية الناشئة.</v>
       </c>
       <c r="D514" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="515">
@@ -7609,7 +7609,7 @@
         <v>من الواضح أنه لا يحتاج إلى استخدام طريقة ليكون ناجحًا.</v>
       </c>
       <c r="D515" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="516">
@@ -7623,7 +7623,7 @@
         <v>تحتاج إلى منظار للحصول على نظرة جيدة على الصف الثالث من الأقواس.</v>
       </c>
       <c r="D516" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="517">
@@ -7637,7 +7637,7 @@
         <v>هل تتمنى فقط أنه ارتكب تلك الجريمة؟</v>
       </c>
       <c r="D517" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="518">
@@ -7651,7 +7651,7 @@
         <v>"لا أرغب في بيع الطعام لأولئك الذين لا يستطيعون تقدير طبيعته الحقيقية والممتعة،" ردّ.</v>
       </c>
       <c r="D518" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="519">
@@ -7665,7 +7665,7 @@
         <v>كانت إعادة بناء طوكيو مخططة بشكل سيء.</v>
       </c>
       <c r="D519" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="520">
@@ -7679,7 +7679,7 @@
         <v>أرادوا مني أن أزرع الورود بجانب مدخلهم.</v>
       </c>
       <c r="D520" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="521">
@@ -7693,7 +7693,7 @@
         <v>تقوم وظيفة الموقع الإلكتروني الأولى بإعادة توجيهك إلى الصفحة الرئيسية.</v>
       </c>
       <c r="D521" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="522">
@@ -7707,7 +7707,7 @@
         <v>يعتقد رايرسون أن هناك حاجة إلى قوانين أكثر صرامة لحماية البيئة.</v>
       </c>
       <c r="D522" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="523">
@@ -7721,7 +7721,7 @@
         <v>كان يريد من المراهقين في الفقر استخدام تدابير لمنعهم من إنجاب الأطفال.</v>
       </c>
       <c r="D523" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="524">
@@ -7735,7 +7735,7 @@
         <v>أنا في وسط العروض لأنني أريد طلاء منزلي.</v>
       </c>
       <c r="D524" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="525">
@@ -7749,7 +7749,7 @@
         <v>كانوا بحاجة إلى دخل إضافي</v>
       </c>
       <c r="D525" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="526">
@@ -7763,7 +7763,7 @@
         <v>أفعل ما أريد.</v>
       </c>
       <c r="D526" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="527">
@@ -7777,7 +7777,7 @@
         <v>أعرف أن اسمك أنطونيو، لا حاجة لتكرار نفسك.</v>
       </c>
       <c r="D527" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="528">
@@ -7791,7 +7791,7 @@
         <v>تم تعيين دونوفان أولسون رئيسًا لمجلس المشرفين في المقاطعة في ديسمبر الماضي.</v>
       </c>
       <c r="D528" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="529">
@@ -7805,7 +7805,7 @@
         <v>أرغب في رؤية السيد براون الحقيقي.</v>
       </c>
       <c r="D529" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="530">
@@ -7819,7 +7819,7 @@
         <v>ستبدأ درجات الحرارة في الانخفاض.</v>
       </c>
       <c r="D530" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="531">
@@ -7833,7 +7833,7 @@
         <v>تريد فيلدستون إيجاد حل عملي لمشكلة الحجز.</v>
       </c>
       <c r="D531" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="532">
@@ -7847,7 +7847,7 @@
         <v>كنا بحاجة إلى إعادة تزيين عدة غرف في المنزل.</v>
       </c>
       <c r="D532" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="533">

--- a/Annotations/annotations_AR.xlsx
+++ b/Annotations/annotations_AR.xlsx
@@ -8827,7 +8827,7 @@
         <v>زحف المزيد من الكنديين الفرنسيين من بيت سمك موري.</v>
       </c>
       <c r="D602" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="603">
@@ -8841,7 +8841,7 @@
         <v>يتطلب التقبيل في الأماكن العامة موافقة شخصية أبوية.</v>
       </c>
       <c r="D603" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="604">
@@ -8855,7 +8855,7 @@
         <v>أندريا فون هابسبورغ هي أكبر طفل في عائلتها.</v>
       </c>
       <c r="D604" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="605">
@@ -8869,7 +8869,7 @@
         <v>وضعت مؤسسة الحديقة الوطنية أراضي للبيع في أكثر من 20 موقعًا عالي الأولوية.</v>
       </c>
       <c r="D605" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="606">
@@ -8883,7 +8883,7 @@
         <v>يجب أن تكون التيراريومات مصنوعة من البلاستيك أو الزجاج.</v>
       </c>
       <c r="D606" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="607">
@@ -8897,7 +8897,7 @@
         <v>المادة المصنوعة لوقف التآكل على ضفاف النهر ليست قابلة للتحلل البيولوجي.</v>
       </c>
       <c r="D607" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="608">
@@ -8911,7 +8911,7 @@
         <v>توفي دونالد كونروي عن عمر يناهز 67 عامًا.</v>
       </c>
       <c r="D608" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="609">
@@ -8925,7 +8925,7 @@
         <v>بالإضافة إلى تجميع الموسيقى مع فرقة الروك البديلة الأمريكية 10,000 Maniacs، يجب اعتبار ماري رامزي عضوًا في ثنائي الفولك روك جون وماري.</v>
       </c>
       <c r="D609" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="610">
@@ -8939,7 +8939,7 @@
         <v>هذه الفقرة مكتملة</v>
       </c>
       <c r="D610" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="611">
@@ -8953,7 +8953,7 @@
         <v>يتطلب منك فالديز الجلوس بشكل مستقيم.</v>
       </c>
       <c r="D611" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="612">
@@ -8967,7 +8967,7 @@
         <v>المتحدث في ولايته الثانية.</v>
       </c>
       <c r="D612" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="613" xml:space="preserve">
@@ -8983,7 +8983,7 @@
         <v>جانيت عم.</v>
       </c>
       <c r="D613" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="614">
@@ -8997,7 +8997,7 @@
         <v>حاكم ولاية أبيا هو أيضًا الرئيس.</v>
       </c>
       <c r="D614" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="615">
@@ -9011,7 +9011,7 @@
         <v>قال والتر موري إنه كان هجومًا أحمق.</v>
       </c>
       <c r="D615" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="616">
@@ -9025,7 +9025,7 @@
         <v>التأمين البحري غير المحدود غير متاح للأفراد، بل فقط للسفن التجارية.</v>
       </c>
       <c r="D616" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="617">
@@ -9039,7 +9039,7 @@
         <v>كونستانس لم تكن تظهر اهتمامًا في المحادثة أو الموضوع.</v>
       </c>
       <c r="D617" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="618">
@@ -9053,7 +9053,7 @@
         <v>يجب على مرضى القولون العصبي شرب الماء فقط.</v>
       </c>
       <c r="D618" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="619">
@@ -9067,7 +9067,7 @@
         <v>يوم جديد هو كتاب صدر عام 1949 من تأليف الكاتب الجامايكي في. إس. ريد. عمره أكثر من 46 عامًا.</v>
       </c>
       <c r="D619" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="620">
@@ -9081,7 +9081,7 @@
         <v>التصويت على المعاهدة يتراوح بين 25 و30 عامًا.</v>
       </c>
       <c r="D620" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="621">
@@ -9095,7 +9095,7 @@
         <v>يبدأ الألبوم بحرف د</v>
       </c>
       <c r="D621" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="622">
@@ -9109,7 +9109,7 @@
         <v>لعب إد إيغان في القائمة النشطة</v>
       </c>
       <c r="D622" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="623">
@@ -9123,7 +9123,7 @@
         <v>أقيمت مباراة كانيلو ألفاريز ضد خوليو سيزار تشافيز جونيور بعد عام 2016.</v>
       </c>
       <c r="D623" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="624">
@@ -9137,7 +9137,7 @@
         <v>منتج الشعر ليس رخيصًا.</v>
       </c>
       <c r="D624" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="625">
@@ -9151,7 +9151,7 @@
         <v>توفي بيرس لأسباب طبيعية.</v>
       </c>
       <c r="D625" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="626">
@@ -9165,7 +9165,7 @@
         <v>سرطان الجلد مرتبط بطبقة الأوزون</v>
       </c>
       <c r="D626" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="627">
@@ -9179,7 +9179,7 @@
         <v>قد تكون عدوى حشوات الجلد مصحوبة بالتهاب</v>
       </c>
       <c r="D627" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="628">
@@ -9193,7 +9193,7 @@
         <v>بيغ داتا كان مشروعًا أنشأته جويويف.</v>
       </c>
       <c r="D628" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="629">
@@ -9207,7 +9207,7 @@
         <v>لعلاج ألم الجهاز العضلي الهيكلي جراحيًا، يجب أولاً إراحة العضلات.</v>
       </c>
       <c r="D629" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="630">
@@ -9221,7 +9221,7 @@
         <v>الجراحة تحتوي على حرف g</v>
       </c>
       <c r="D630" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="631">
@@ -9235,7 +9235,7 @@
         <v>تُجرى الجراحة بواسطة جراح.</v>
       </c>
       <c r="D631" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="632">
@@ -9249,7 +9249,7 @@
         <v>لم يسمع معظم الناس بأغنية "أوه ماي".</v>
       </c>
       <c r="D632" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="633">
@@ -9263,7 +9263,7 @@
         <v>القاضي بريير ناشر.</v>
       </c>
       <c r="D633" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="634">
@@ -9277,7 +9277,7 @@
         <v>البلدية و الكومونة تعنيان نفس الشيء.</v>
       </c>
       <c r="D634" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="635">
@@ -9291,7 +9291,7 @@
         <v>كيت موس أطلقت خط منتجات شعرها الخاص.</v>
       </c>
       <c r="D635" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="636">
@@ -9305,7 +9305,7 @@
         <v>كانت السلسلة تدور حول موسيقي جاز متقاعد يدعى جاكي إيفانز.</v>
       </c>
       <c r="D636" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="637">
@@ -9319,7 +9319,7 @@
         <v>ويليام توماس هاريس كان رامي كندي يضرب باليد اليسرى لفريق دوغاي فيل.</v>
       </c>
       <c r="D637" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="638">
@@ -9333,7 +9333,7 @@
         <v>يجب إضافة الرشات إلى الكعكة.</v>
       </c>
       <c r="D638" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="639">
@@ -9347,7 +9347,7 @@
         <v>طريق بلو ريدج السريع يقع في كارولينا الشمالية وفيرجينيا.</v>
       </c>
       <c r="D639" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="640">
@@ -9361,7 +9361,7 @@
         <v>منزل جن الجنائزي مسؤول عن وفاة جون</v>
       </c>
       <c r="D640" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="641">
@@ -9375,7 +9375,7 @@
         <v>الإضراب سيسبب تأخيرات في التسليم</v>
       </c>
       <c r="D641" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="642">
@@ -9389,7 +9389,7 @@
         <v>ستقوم اللجنة الفرعية بأربع رحلات في ربيع عام 1999.</v>
       </c>
       <c r="D642" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="643">
@@ -9403,7 +9403,7 @@
         <v>اضرب المقامات.</v>
       </c>
       <c r="D643" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="644">
@@ -9417,7 +9417,7 @@
         <v>سوف يقوم شخص ما بكتابة قصة عن حياة دونالد ريكليس.</v>
       </c>
       <c r="D644" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="645">
@@ -9431,7 +9431,7 @@
         <v>أدلفيا ليست تاسع أكبر مزود خدمة كابل في الولايات المتحدة مع ما يقرب من 5 ملايين مشترك.</v>
       </c>
       <c r="D645" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="646">
@@ -9445,7 +9445,7 @@
         <v>أضف البسطين.</v>
       </c>
       <c r="D646" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="647">
@@ -9459,7 +9459,7 @@
         <v>إلسه فون غلاتز كانت مدافعة في الحياة الواقعية.</v>
       </c>
       <c r="D647" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="648">
@@ -9473,7 +9473,7 @@
         <v>حكم مكغيلس أضر بسمعتهم.</v>
       </c>
       <c r="D648" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="649">
@@ -9487,7 +9487,7 @@
         <v>يجب عليك استخدام خس الروماني للطبخ بالبخار.</v>
       </c>
       <c r="D649" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="650">
@@ -9501,7 +9501,7 @@
         <v>داني ساعد شخصًا في اتخاذ قرار مختلف من خلال التطوع في خط المساعدة للوقاية من الانتحار.</v>
       </c>
       <c r="D650" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="651">
@@ -9515,7 +9515,7 @@
         <v>يلعب لاعبو مباراة كل النجوم في كرة القدم الجامعية في مباراة شرق-غرب شراين.</v>
       </c>
       <c r="D651" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="652">
@@ -9529,7 +9529,7 @@
         <v>كان توماس رايان في الثانية والخمسين من عمره في عام 2008.</v>
       </c>
       <c r="D652" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="653">
@@ -9543,7 +9543,7 @@
         <v>داني كان يعلم كم يمكن أن يكون الأمر صعبًا.</v>
       </c>
       <c r="D653" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="654">
@@ -9557,7 +9557,7 @@
         <v>لم تصل السلطات إلى استنتاج بأنه كان جريمة قتل.</v>
       </c>
       <c r="D654" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="655">
@@ -9571,7 +9571,7 @@
         <v>توفي هنري بعد 7 سنوات من اختراعه الآلة.</v>
       </c>
       <c r="D655" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="656">
@@ -9585,7 +9585,7 @@
         <v>توفيت سيلما دايموند عن عمر يناهز 60 عامًا.</v>
       </c>
       <c r="D656" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="657">
@@ -9599,7 +9599,7 @@
         <v>محافظتي هي ساسكواتش.</v>
       </c>
       <c r="D657" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="658">
@@ -9613,7 +9613,7 @@
         <v>روسيا تستمع إلى أمريكا.</v>
       </c>
       <c r="D658" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="659">
@@ -9627,7 +9627,7 @@
         <v>ستيفن تشيلاندر يعمل في مجلس سلامة النقل الوطني.</v>
       </c>
       <c r="D659" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="660">
@@ -9641,7 +9641,7 @@
         <v>تُقام مباراة النجوم بعد انتهاء موسم كرة القدم الجامعية.</v>
       </c>
       <c r="D660" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="661">
@@ -9655,7 +9655,7 @@
         <v>نظام التعليم معيب بعمق ولا ينبغي أن يُترك أي طفل خلفه.</v>
       </c>
       <c r="D661" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="662">
@@ -9669,7 +9669,7 @@
         <v>جيل الطفرة السكانية هو المسؤول عن ارتفاع أسعار المنازل بشكل كبير.</v>
       </c>
       <c r="D662" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="663">
@@ -9683,7 +9683,7 @@
         <v>هانك حصل على حشوة قبل يومين</v>
       </c>
       <c r="D663" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="664">
@@ -9697,7 +9697,7 @@
         <v>اختار فريق تامبا إريكسون في الجولة الرابعة من عملية الاختيار لعام 1991.</v>
       </c>
       <c r="D664" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="665">
@@ -9711,7 +9711,7 @@
         <v>ويتا ابن ويكتا يحب الاستماع إلى العود.</v>
       </c>
       <c r="D665" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="666">
@@ -9725,7 +9725,7 @@
         <v>كان من الممكن تجنب كسر خط المياه.</v>
       </c>
       <c r="D666" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="667">
@@ -9739,7 +9739,7 @@
         <v>جميع الأصدقاء الخمسة إناث.</v>
       </c>
       <c r="D667" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="668">
@@ -9753,7 +9753,7 @@
         <v>وُلد كوتا راماكريشنا كارانت بعد أبريل</v>
       </c>
       <c r="D668" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="669">
@@ -9767,7 +9767,7 @@
         <v>زميلي ذكر أيضًا أننا يمكن أن نقبل بعض التغييرات المقترحة التي كانت على الحدود الجيدة.</v>
       </c>
       <c r="D669" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="670">
@@ -9781,7 +9781,7 @@
         <v>تم بيع طريق بلو ريدج باركواي لأطراف خاصة.</v>
       </c>
       <c r="D670" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="671">
@@ -9795,7 +9795,7 @@
         <v>المتحدث يعرف لون عيون سارة</v>
       </c>
       <c r="D671" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="672">
@@ -9809,7 +9809,7 @@
         <v>تسعى جهات خاصة لشراء أراضٍ من صندوق الحدائق الوطنية.</v>
       </c>
       <c r="D672" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="673">
@@ -9823,7 +9823,7 @@
         <v>مانسون لن يلعب المباراة الرابعة والسبعين.</v>
       </c>
       <c r="D673" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="674">
@@ -9837,7 +9837,7 @@
         <v>عرضت قناة ABC مسلسل "لوست" لمدة لا تقل عن 6 مواسم.</v>
       </c>
       <c r="D674" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="675">
@@ -9851,7 +9851,7 @@
         <v>الأطعمة المحفزة من الضروري أن تكون على دراية بها وتجنبها لكل من متلازمة القولون العصبي وارتجاع المريء نظرًا لتشابه الحالتين.</v>
       </c>
       <c r="D675" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="676">
@@ -9865,7 +9865,7 @@
         <v>كان أول دور فيلم لإيرا هايدن في عام 1987.</v>
       </c>
       <c r="D676" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="677">
@@ -9879,7 +9879,7 @@
         <v>لا يمكن لوكلاء العقارات في فلوريدا التصرف بسوء سلوك، لكن يمكن أن يكونوا غير فعالين عند تمثيل عملائهم.</v>
       </c>
       <c r="D677" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="678">
@@ -9893,7 +9893,7 @@
         <v>يتم تدقيق مجلس الاستشارات العلمية</v>
       </c>
       <c r="D678" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="679">
@@ -9907,7 +9907,7 @@
         <v>تُصاب الديدان ببراز الكلاب.</v>
       </c>
       <c r="D679" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="680">
@@ -9921,7 +9921,7 @@
         <v>راهول غاندي يحب ناريندرا مودي حقًا.</v>
       </c>
       <c r="D680" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="681">
@@ -9935,7 +9935,7 @@
         <v>منزل كوبر-فروست-أوستن يقدم جولات خاصة في أوائل مايو.</v>
       </c>
       <c r="D681" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="682">
@@ -9949,7 +9949,7 @@
         <v>وصلت في منتصف الصباح.</v>
       </c>
       <c r="D682" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="683">
@@ -9963,7 +9963,7 @@
         <v>محور الهلاك هو مجموعة كورية للبوب.</v>
       </c>
       <c r="D683" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="684">
@@ -9977,7 +9977,7 @@
         <v>يجب أن يُعامل الأساقفة مثل أي عضو آخر في الكنيسة.</v>
       </c>
       <c r="D684" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="685">
@@ -9991,7 +9991,7 @@
         <v>يمكن تشغيل فيلم راتاتوي في السيارة</v>
       </c>
       <c r="D685" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="686">
@@ -10005,7 +10005,7 @@
         <v>كانوا خائفين عندما عادوا أن يكون جميع الأطفال مرضى.</v>
       </c>
       <c r="D686" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="687">
@@ -10019,7 +10019,7 @@
         <v>يجب أن تحتوي القصيدة على قوافي.</v>
       </c>
       <c r="D687" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="688">
@@ -10033,7 +10033,7 @@
         <v>كان بإمكان إيثان زراعة الأعشاب في نفس الحديقة.</v>
       </c>
       <c r="D688" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="689">
@@ -10047,7 +10047,7 @@
         <v>كتبت وكالة أسوشيتد برس هذا الإعلان.</v>
       </c>
       <c r="D689" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="690">
@@ -10061,7 +10061,7 @@
         <v>أورسون ويلز كان منتجًا.</v>
       </c>
       <c r="D690" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="691">
@@ -10075,7 +10075,7 @@
         <v>جوي غراسييفا مهندس كمبيوتر.</v>
       </c>
       <c r="D691" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="692">
@@ -10089,7 +10089,7 @@
         <v>لدى راديوهيد ثلاثة ألبومات صدرت.</v>
       </c>
       <c r="D692" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="693">
@@ -10103,7 +10103,7 @@
         <v>فينوم مرتبط عادة بالرجل العنكبوت.</v>
       </c>
       <c r="D693" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="694">
@@ -10117,7 +10117,7 @@
         <v>مارلين بيرنز كانت مبارزة.</v>
       </c>
       <c r="D694" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="695">
@@ -10131,7 +10131,7 @@
         <v>كان جيم هنسون مغنيًا.</v>
       </c>
       <c r="D695" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="696">
@@ -10145,7 +10145,7 @@
         <v>كاران جوهر هو رئيس.</v>
       </c>
       <c r="D696" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="697">
@@ -10159,7 +10159,7 @@
         <v>أورسون ويلز كان ممثلاً.</v>
       </c>
       <c r="D697" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="698">
@@ -10173,7 +10173,7 @@
         <v>كلينت إيستوود يؤدي الموسيقى.</v>
       </c>
       <c r="D698" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="699">
@@ -10187,7 +10187,7 @@
         <v>كانت الملكة فيكتوريا ملكة لدولة.</v>
       </c>
       <c r="D699" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="700">
@@ -10201,7 +10201,7 @@
         <v>الجلد الدافئ من تأليف امرأة.</v>
       </c>
       <c r="D700" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="701">
@@ -10215,7 +10215,7 @@
         <v>إكس-مين: أيام المستقبل الماضي صدر بعد عام 2010.</v>
       </c>
       <c r="D701" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="702">
@@ -10229,7 +10229,7 @@
         <v>جوردان نايت هو ممثل سينمائي.</v>
       </c>
       <c r="D702" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="703">
@@ -10243,7 +10243,7 @@
         <v>مينيسوتا في فرنسا.</v>
       </c>
       <c r="D703" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="704">
@@ -10257,7 +10257,7 @@
         <v>مرض هنتنغتون هو اضطراب قد يتم وراثته.</v>
       </c>
       <c r="D704" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="705">
@@ -10271,7 +10271,7 @@
         <v>سُو سيلفستر تُجسد حصريًا بواسطة ممثل ذكر.</v>
       </c>
       <c r="D705" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="706">
@@ -10285,7 +10285,7 @@
         <v>بدأت جوان كروفورد مسيرتها المهنية كممثلة.</v>
       </c>
       <c r="D706" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="707">
@@ -10299,7 +10299,7 @@
         <v>ليوناردو دا فينشي يواعد أحد أعظم الرسامين في كل العصور.</v>
       </c>
       <c r="D707" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="708">
@@ -10313,7 +10313,7 @@
         <v>كان فريد ترامب في الثالثة عشرة من عمره في ديسمبر عام 1918.</v>
       </c>
       <c r="D708" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="709">
@@ -10327,7 +10327,7 @@
         <v>صوفيا كوبولا هو نبيذ فوار.</v>
       </c>
       <c r="D709" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="710">
@@ -10341,7 +10341,7 @@
         <v>فيلم إكس-مين يضم طاقمًا من الممثلين الأمريكيين، ومن بينهم المغني إيان ماكليلن.</v>
       </c>
       <c r="D710" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="711">
@@ -10355,7 +10355,7 @@
         <v>انتهت أنجح فترة لنادي نيوكاسل يونايتد لكرة القدم في مايو عام 1910.</v>
       </c>
       <c r="D711" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="712">
@@ -10369,7 +10369,7 @@
         <v>درس ليوناردو دا فينشي علم التشريح.</v>
       </c>
       <c r="D712" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="713">
@@ -10383,7 +10383,7 @@
         <v>جوي غراسييفا من جمهورية تتكون من اتحاد، مبنية على دستور.</v>
       </c>
       <c r="D713" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="714">
@@ -10397,7 +10397,7 @@
         <v>غلي هو كوميديا رعب.</v>
       </c>
       <c r="D714" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="715">
@@ -10411,7 +10411,7 @@
         <v>وُلِدَ مخرج الحلقة التجريبية من مسلسل "The Blacklist" خلال إدارة كينيدي.</v>
       </c>
       <c r="D715" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="716">
@@ -10425,7 +10425,7 @@
         <v>رومان رينز بستاني.</v>
       </c>
       <c r="D716" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="717">
@@ -10439,7 +10439,7 @@
         <v>تيد كينيدي هو سيناتور أمريكي.</v>
       </c>
       <c r="D717" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="718">
@@ -10453,7 +10453,7 @@
         <v>الخارق هو مسلسل.</v>
       </c>
       <c r="D718" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="719">
@@ -10467,7 +10467,7 @@
         <v>الطبيب الثاني عشر في برنامج تلفزيوني بريطاني.</v>
       </c>
       <c r="D719" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="720">
@@ -10481,7 +10481,7 @@
         <v>توفي جاك بار في تاريخ في القرن الحادي والعشرين.</v>
       </c>
       <c r="D720" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="721">
@@ -10495,7 +10495,7 @@
         <v>مشاهد فيلم كوكب القرود في وحول تمثال الحرية.</v>
       </c>
       <c r="D721" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="722">
@@ -10509,7 +10509,7 @@
         <v>تم إصدار "One More Light" عبر CBS.</v>
       </c>
       <c r="D722" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="723">
@@ -10523,7 +10523,7 @@
         <v>وينتورث هو حلقة واحدة على التلفزيون.</v>
       </c>
       <c r="D723" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="724">
@@ -10537,7 +10537,7 @@
         <v>روبرت براوننج كان شاعراً بارزاً في عصر الإمبراطورية الروسية.</v>
       </c>
       <c r="D724" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="725">
@@ -10551,7 +10551,7 @@
         <v>أودري هورن تم تقديمها في توين بيكس: العودة.</v>
       </c>
       <c r="D725" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="726">
@@ -10565,7 +10565,7 @@
         <v>شخصية "أفاتار: آخر مسخر الهواء" الرئيسية كانت آنگ.</v>
       </c>
       <c r="D726" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="727">
@@ -10579,7 +10579,7 @@
         <v>إيفان غولدبرغ مخرج ألماني.</v>
       </c>
       <c r="D727" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="728">
@@ -10593,7 +10593,7 @@
         <v>سيندي مكين أمريكية.</v>
       </c>
       <c r="D728" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="729">
@@ -10607,7 +10607,7 @@
         <v>كولدبلاي هي فرقة بريطانية.</v>
       </c>
       <c r="D729" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="730">
@@ -10621,7 +10621,7 @@
         <v>تيم ألين مثل في عرض أمريكي.</v>
       </c>
       <c r="D730" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="731">
@@ -10635,7 +10635,7 @@
         <v>توني بلير كان زعيم حزب المحافظين.</v>
       </c>
       <c r="D731" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="732">
@@ -10649,7 +10649,7 @@
         <v>هيذر واتسون بطلة.</v>
       </c>
       <c r="D732" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="733">
@@ -10663,7 +10663,7 @@
         <v>جون ماكين معروف بعمله على استعادة العلاقات الدبلوماسية مع روسيا.</v>
       </c>
       <c r="D733" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="734">
@@ -10677,7 +10677,7 @@
         <v>كان فلاديمير بوتين رئيسًا لحكومة.</v>
       </c>
       <c r="D734" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="735">
@@ -10691,7 +10691,7 @@
         <v>النزيل يضم ممثلين أمريكيين.</v>
       </c>
       <c r="D735" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="736">
@@ -10705,7 +10705,7 @@
         <v>تيموثي أوليفانت كان حيوانًا.</v>
       </c>
       <c r="D736" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="737">
@@ -10719,7 +10719,7 @@
         <v>كان الاسم الأوسط لفرانك سيناترا سام.</v>
       </c>
       <c r="D737" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="738">
@@ -10733,7 +10733,7 @@
         <v>كان ساج ستالون أبًا.</v>
       </c>
       <c r="D738" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="739">
@@ -10747,7 +10747,7 @@
         <v>ماو تسي تونغ كان روسياً.</v>
       </c>
       <c r="D739" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="740">
@@ -10761,7 +10761,7 @@
         <v>لي هارفي أوزوالد اغتال الرئيس الخامس والثلاثين للولايات المتحدة.</v>
       </c>
       <c r="D740" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="741">
@@ -10775,7 +10775,7 @@
         <v>جابوري سيديب مواطنة من الولايات المتحدة.</v>
       </c>
       <c r="D741" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="742">
@@ -10789,7 +10789,7 @@
         <v>كانت "غلي" فيلمًا.</v>
       </c>
       <c r="D742" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="743">
@@ -10803,7 +10803,7 @@
         <v>توني بلير ممثل.</v>
       </c>
       <c r="D743" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="744">
@@ -10817,7 +10817,7 @@
         <v>أندرسون كوبر هو شخص.</v>
       </c>
       <c r="D744" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="745">
@@ -10831,7 +10831,7 @@
         <v>هيذر واتسون أم.</v>
       </c>
       <c r="D745" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="746">
@@ -10845,7 +10845,7 @@
         <v>جورج كلوني رسام كاريكاتير.</v>
       </c>
       <c r="D746" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="747">
@@ -10859,7 +10859,7 @@
         <v>أفريل لافين موسيقية.</v>
       </c>
       <c r="D747" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="748">
@@ -10873,7 +10873,7 @@
         <v>إميليو إستيفيز وُلِد في مزود.</v>
       </c>
       <c r="D748" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="749">
@@ -10887,7 +10887,7 @@
         <v>كانت ميراندا كير عارضة أزياء كندية في فيكتوريا سيكريت.</v>
       </c>
       <c r="D749" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="750">
@@ -10901,7 +10901,7 @@
         <v>هالك هو خلق.</v>
       </c>
       <c r="D750" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="751">
@@ -10915,7 +10915,7 @@
         <v>مونيكا سيليش لعبت التنس.</v>
       </c>
       <c r="D751" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="752">

--- a/Annotations/annotations_AR.xlsx
+++ b/Annotations/annotations_AR.xlsx
@@ -10929,7 +10929,7 @@
         <v>بدأت "بيني دريدفول" في القرن الحادي والعشرين.</v>
       </c>
       <c r="D752" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="753">
@@ -10943,7 +10943,7 @@
         <v>دوغ جونز يعمل في صناعة السينما.</v>
       </c>
       <c r="D753" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="754">
@@ -10957,7 +10957,7 @@
         <v>وارم ليذريت هو عمل لفنانة ولدت في جامايكا وتم إصداره في عام 1980.</v>
       </c>
       <c r="D754" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="755">
@@ -10971,7 +10971,7 @@
         <v>كان "غلي" مسلسلًا تلفزيونيًا.</v>
       </c>
       <c r="D755" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="756">
@@ -10985,7 +10985,7 @@
         <v>إستلا وارن هي من مواليد برج الجوزاء.</v>
       </c>
       <c r="D756" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="757">
@@ -10999,7 +10999,7 @@
         <v>نساء يائسات هو مسلسل تلفزيوني.</v>
       </c>
       <c r="D757" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="758">
@@ -11013,7 +11013,7 @@
         <v>إيمينيم كان من مواليد الجوزاء.</v>
       </c>
       <c r="D758" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="759">
@@ -11027,7 +11027,7 @@
         <v>توم دي سيمون اختفى في هايتي.</v>
       </c>
       <c r="D759" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="760">
@@ -11041,7 +11041,7 @@
         <v>تم قتل ويليام ر. تولبرت الابن.</v>
       </c>
       <c r="D760" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="761">
@@ -11055,7 +11055,7 @@
         <v>ميرندا كوسغروف سائق سيارات سباق</v>
       </c>
       <c r="D761" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="762">
@@ -11069,7 +11069,7 @@
         <v>وينونا جود تشارك في تمارين الأيروبكس المائية.</v>
       </c>
       <c r="D762" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="763">
@@ -11083,7 +11083,7 @@
         <v>ترى كول هو عازف الطبول في فرقة غرين داي.</v>
       </c>
       <c r="D763" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="764">
@@ -11097,7 +11097,7 @@
         <v>أنهى ديفيد شويمر التمثيل في مسلسل الأصدقاء في 8 أكتوبر 2004.</v>
       </c>
       <c r="D764" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="765">
@@ -11111,7 +11111,7 @@
         <v>جينادي جولوفيكين هو مبارز.</v>
       </c>
       <c r="D765" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="766">
@@ -11125,7 +11125,7 @@
         <v>دينيس هوبر كان شخصًا.</v>
       </c>
       <c r="D766" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="767">
@@ -11139,7 +11139,7 @@
         <v>ولد ساج ستالون في الصين.</v>
       </c>
       <c r="D767" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="768">
@@ -11153,7 +11153,7 @@
         <v>لورنس أوليفييه كان في أمريكا.</v>
       </c>
       <c r="D768" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="769">
@@ -11167,7 +11167,7 @@
         <v>جينادي جولوفتكين هو حبار.</v>
       </c>
       <c r="D769" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="770">
@@ -11181,7 +11181,7 @@
         <v>نوفاك ديوكوفيتش رياضي.</v>
       </c>
       <c r="D770" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="771">
@@ -11195,7 +11195,7 @@
         <v>أدت غريس جونز في فيلم "من أجل قتل".</v>
       </c>
       <c r="D771" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="772">
@@ -11209,7 +11209,7 @@
         <v>دينيس هوبر كان أستراليًا.</v>
       </c>
       <c r="D772" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="773">
@@ -11223,7 +11223,7 @@
         <v>الحب والصداقة إعلان تجاري.</v>
       </c>
       <c r="D773" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="774">
@@ -11237,7 +11237,7 @@
         <v>إسبانيا دولة.</v>
       </c>
       <c r="D774" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="775">
@@ -11251,7 +11251,7 @@
         <v>توني غولدوين هو منتج ألماني.</v>
       </c>
       <c r="D775" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="776">
@@ -11265,7 +11265,7 @@
         <v>رومان رينز هو لاعب بيسبول محترف.</v>
       </c>
       <c r="D776" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="777">
@@ -11279,7 +11279,7 @@
         <v>كان فلاديمير بوتين رئيسًا من 1997 إلى 2008.</v>
       </c>
       <c r="D777" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="778">
@@ -11293,7 +11293,7 @@
         <v>سياتل هي أكبر مدينة في ولاية واشنطن.</v>
       </c>
       <c r="D778" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="779">
@@ -11307,7 +11307,7 @@
         <v>أندي كوفمان كان وحشياً.</v>
       </c>
       <c r="D779" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="780">
@@ -11321,7 +11321,7 @@
         <v>داني كاري ليس لديه اسم وسط.</v>
       </c>
       <c r="D780" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="781">
@@ -11335,7 +11335,7 @@
         <v>فاز تايجر وودز بدعوة بالم سبرينغز.</v>
       </c>
       <c r="D781" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="782">
@@ -11349,7 +11349,7 @@
         <v>تأسست مدرسة بريت في عام 1922.</v>
       </c>
       <c r="D782" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="783">
@@ -11363,7 +11363,7 @@
         <v>كان جون وين جاسي الابن متورطًا في الجريمة.</v>
       </c>
       <c r="D783" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="784">
@@ -11377,7 +11377,7 @@
         <v>كان قائد شوتزشتافل هاينريش هيملر.</v>
       </c>
       <c r="D784" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="785">
@@ -11391,7 +11391,7 @@
         <v>فيرجي لديها كلب يسمى "صريح".</v>
       </c>
       <c r="D785" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="786">
@@ -11405,7 +11405,7 @@
         <v>عمل جوي غراسيفا مع موقع إلكتروني مقره في سان برنو، كاليفورنيا.</v>
       </c>
       <c r="D786" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="787">
@@ -11433,7 +11433,7 @@
         <v>كارميلو أنطوني يلعب لفريق كرة القدم.</v>
       </c>
       <c r="D788" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="789">
@@ -11447,7 +11447,7 @@
         <v>توم فيلتون هو من مواليد برج الجوزاء.</v>
       </c>
       <c r="D789" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="790">
@@ -11461,7 +11461,7 @@
         <v>تم طلب الموسم الأخير من "Glee" في 19 أبريل 2013.</v>
       </c>
       <c r="D790" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="791">
@@ -11475,7 +11475,7 @@
         <v>كانت "غلي" فيلمًا.</v>
       </c>
       <c r="D791" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="792">
@@ -11489,7 +11489,7 @@
         <v>جميع القوانين المتعلقة بحقوق الناس في حضانة الأطفال تشترط أن يكون الآباء متزوجين.</v>
       </c>
       <c r="D792" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="793">
@@ -11503,7 +11503,7 @@
         <v>كانت هناك محاكمة شهداء على المنصة.</v>
       </c>
       <c r="D793" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="794">
@@ -11517,7 +11517,7 @@
         <v>ضحك ديكستر من فكرة "لدي حلم" الآيس كريم.</v>
       </c>
       <c r="D794" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="795">
@@ -11531,7 +11531,7 @@
         <v>اعترف فيش بأنه قد يكون مخطئًا.</v>
       </c>
       <c r="D795" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="796">
@@ -11545,7 +11545,7 @@
         <v>ليس من باب الدفاع عن الشيطان، لكن موسوليني كان الإلهام الرئيسي لتودجمان، منذ أن كان سياسيًا شابًا.</v>
       </c>
       <c r="D796" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="797">
@@ -11559,7 +11559,7 @@
         <v>يعتقد المسيحيون على طراز فالويل أن المسيح كان يهودياً.</v>
       </c>
       <c r="D797" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="798">
@@ -11573,7 +11573,7 @@
         <v>يقولون إن معلوماته لا تستحق الاعتبار.</v>
       </c>
       <c r="D798" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="799">
@@ -11587,7 +11587,7 @@
         <v>أنكر ريتشي والطبيب ارتكاب أي أفعال خاطئة ضد وينيت خلال المحاكمة.</v>
       </c>
       <c r="D799" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="800">
@@ -11601,7 +11601,7 @@
         <v>استمر القارئ في قراءة الكتاب حتى النهاية.</v>
       </c>
       <c r="D800" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="801">
@@ -11615,7 +11615,7 @@
         <v>سيُسمح للعديد من المدانين بجرائم خطيرة بالتفاعل عن كثب مع الرئيس غير المحمي ومجموعات المصالح الخاصة.</v>
       </c>
       <c r="D801" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="802">
@@ -11629,7 +11629,7 @@
         <v>أوقف نيويوركر عمود رسائل من أوروبا.</v>
       </c>
       <c r="D802" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="803">
@@ -11643,7 +11643,7 @@
         <v>قد يكون اسمي بيير لوكلوك.</v>
       </c>
       <c r="D803" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="804">
@@ -11657,7 +11657,7 @@
         <v>يمكن استخدام آلات البينبول للمقامرة.</v>
       </c>
       <c r="D804" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="805">
@@ -11685,7 +11685,7 @@
         <v>نيوهامشير وآيوا غالبًا ما يغيران أفكار المرء.</v>
       </c>
       <c r="D806" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="807">
@@ -11699,7 +11699,7 @@
         <v>هناك عبقري على قيد الحياة الآن يمكنه مساعدتنا في هذا.</v>
       </c>
       <c r="D807" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="808">
@@ -11713,7 +11713,7 @@
         <v>لا شك في ذلك، هناك حياة على كواكب أخرى.</v>
       </c>
       <c r="D808" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="809">
@@ -11727,7 +11727,7 @@
         <v>دورثي هيلي تعرفت على موريس.</v>
       </c>
       <c r="D809" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="810">
@@ -11741,7 +11741,7 @@
         <v>من الخطأ الاستئناف إلى ذلك الموقف.</v>
       </c>
       <c r="D810" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="811">
@@ -11755,7 +11755,7 @@
         <v>يتمتع اللوبيون والمتبرعون الكبار بإمكانية وصول أسهل إلى أعضاء مجلس الشيوخ.</v>
       </c>
       <c r="D811" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="812">
@@ -11769,7 +11769,7 @@
         <v>كان هناك في الواقع المزيد من الدول في عام 1992 التي كان يمكن أن تشارك،</v>
       </c>
       <c r="D812" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="813">
@@ -11783,7 +11783,7 @@
         <v>من المحتمل أن شخصًا ما قد أعطى كينيث ستار شريطًا من حلقة هذا الأسبوع من برنامج "هذا الأسبوع".</v>
       </c>
       <c r="D813" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="814">
@@ -11797,7 +11797,7 @@
         <v>ريبوك أعطت الحذاء اسمًا مثيرًا عن عمد.</v>
       </c>
       <c r="D814" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="815">
@@ -11811,7 +11811,7 @@
         <v>الطفل المتبنى يتنمر على الجميع في الملعب.</v>
       </c>
       <c r="D815" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="816">
@@ -11825,7 +11825,7 @@
         <v>ستُتجنب الانقطاعات الكارثية لشبكات الكهرباء، والبنوك، وأجهزة الكمبيوتر الخاصة بحركة الطيران، والمعدات الطبية، وما شابه ذلك لسنوات قادمة.</v>
       </c>
       <c r="D816" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="817">
@@ -11839,7 +11839,7 @@
         <v>الافتراضات التي يعتقد لانغ أنها مؤكدة بشكل كبير هي خاطئة.</v>
       </c>
       <c r="D817" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="818">
@@ -11853,7 +11853,7 @@
         <v>اليوم، ادعى جاسوس أنه وفقًا لمعلومات الرجل الميت، عندما تم استجوابه من قبل كاتب رسائل، أن السلطات الأمريكية قد تكون قد وافقت على اغتيال ديم.</v>
       </c>
       <c r="D818" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="819">
@@ -11867,7 +11867,7 @@
         <v>يتجنب الجمهوريون انتقاد الرئيس لأنه من حزبهم.</v>
       </c>
       <c r="D819" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="820">
@@ -11881,7 +11881,7 @@
         <v>كان بإمكانك رؤية الألم مكتوباً على وجهه وكان يبدو بائساً.</v>
       </c>
       <c r="D820" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="821">
@@ -11895,7 +11895,7 @@
         <v>كانت تخفي سراً عنهم.</v>
       </c>
       <c r="D821" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="822">
@@ -11909,7 +11909,7 @@
         <v>كان من الصعب تحديد ما إذا كانوا في المكان الصحيح.</v>
       </c>
       <c r="D822" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="823">
@@ -11923,7 +11923,7 @@
         <v>لقد حصل أصدقاء إلغاء التنظيم على العديد من الهدايا في الذكريات الماضية.</v>
       </c>
       <c r="D823" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="824">
@@ -11937,7 +11937,7 @@
         <v>كانت عمان فشلاً مكلفًا</v>
       </c>
       <c r="D824" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="825">
@@ -11951,7 +11951,7 @@
         <v>يجب على أصحاب العمل بيع البيض للمساهمين.</v>
       </c>
       <c r="D825" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="826">
@@ -11965,7 +11965,7 @@
         <v>طلاب الكلية لا يهتمون بالعمل في المصانع.</v>
       </c>
       <c r="D826" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="827">
@@ -11979,7 +11979,7 @@
         <v>من الممكن أن يتجاوز الكونغرس ميزانيته.</v>
       </c>
       <c r="D827" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="828">
@@ -11993,7 +11993,7 @@
         <v>جيس غوبتا قد يكون مثليًا.</v>
       </c>
       <c r="D828" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="829">
@@ -12007,7 +12007,7 @@
         <v>كان هنري يحب أن يجعل الفتاة تصرخ من السعادة من خلال إعطائها الأشياء التي تحبها.</v>
       </c>
       <c r="D829" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="830">
@@ -12021,7 +12021,7 @@
         <v>مارس المورمون تعدد الزوجات.</v>
       </c>
       <c r="D830" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="831">
@@ -12035,7 +12035,7 @@
         <v>يجب على المستثمرين سحب أموالهم من مايكروسوفت بسبب المعلومات السلبية.</v>
       </c>
       <c r="D831" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="832">
@@ -12049,7 +12049,7 @@
         <v>ظنوا أنه يجب أن يقضي المزيد من الوقت على الإنترنت.</v>
       </c>
       <c r="D832" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="833">
@@ -12105,7 +12105,7 @@
         <v>يجب أن يصل المنتج إلى المتاجر بحلول أشهر الصيف يونيو ويوليو وأغسطس.</v>
       </c>
       <c r="D836" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="837">
@@ -12119,7 +12119,7 @@
         <v>قد ينهار المجتمع يومًا ما.</v>
       </c>
       <c r="D837" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="838">
@@ -12133,7 +12133,7 @@
         <v>من المحتمل أن يصاب المؤلف بمرض قاتل قبل الموت بفترة طويلة.</v>
       </c>
       <c r="D838" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="839">
@@ -12147,7 +12147,7 @@
         <v>لدينا وصول إلى مواد محمية بحقوق الطبع والنشر.</v>
       </c>
       <c r="D839" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="840">
@@ -12161,7 +12161,7 @@
         <v>قد يكونون جميعًا عبيدًا.</v>
       </c>
       <c r="D840" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="841">
@@ -12175,7 +12175,7 @@
         <v>الولايات المتحدة وروسيا في حرب معًا.</v>
       </c>
       <c r="D841" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="842">
@@ -12189,7 +12189,7 @@
         <v>هناك حماية إضافية قليلة من الانضمام إلى الناتو.</v>
       </c>
       <c r="D842" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="843">
@@ -12203,7 +12203,7 @@
         <v>خيارات الأسهم نادراً ما تكون شرعية للمستهلك.</v>
       </c>
       <c r="D843" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="844">
@@ -12217,7 +12217,7 @@
         <v>سيتم توسيع البرنامج ليشمل الشرطة.</v>
       </c>
       <c r="D844" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="845">
@@ -12231,7 +12231,7 @@
         <v>هو لا يحكم على الناس بقسوة الذين لديهم أفكار دينية مختلفة عن أفكاره.</v>
       </c>
       <c r="D845" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="846">
@@ -12245,7 +12245,7 @@
         <v>لديهم خيارات للخروج من المأزق.</v>
       </c>
       <c r="D846" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="847">
@@ -12259,7 +12259,7 @@
         <v>لقد تغيرت بالفعل.</v>
       </c>
       <c r="D847" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="848">
@@ -12273,7 +12273,7 @@
         <v>القروض الكبيرة هي التي ستحدث الفرق.</v>
       </c>
       <c r="D848" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="849">
@@ -12287,7 +12287,7 @@
         <v>منحت أبل الإذن لعدد من الشركات، مثل آي بي إم وHP، لإنتاج أجهزة تعمل بنظام التشغيل الخاص بها.</v>
       </c>
       <c r="D849" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="850">
@@ -12301,7 +12301,7 @@
         <v>يمكن أن يكون من الممكن طلب مغادرة الأشخاص دون وجود مشاكل عائلية.</v>
       </c>
       <c r="D850" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="851">
@@ -12315,7 +12315,7 @@
         <v>للذكاء تفسيرات وإمكانيات عديدة، بما في ذلك الغريب.</v>
       </c>
       <c r="D851" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="852">
@@ -12329,7 +12329,7 @@
         <v>قد تواجه وحدات الكوماندوز العراقية صعوبة في الهروب من أي تقارير من وسائل الإعلام.</v>
       </c>
       <c r="D852" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="853">
@@ -12343,7 +12343,7 @@
         <v>لم يتم النظر في الموظفين ذوي الرتب العالية في شركة الأحذية.</v>
       </c>
       <c r="D853" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="854">
@@ -12357,7 +12357,7 @@
         <v>تريب في الواقع ركب تنينًا لكن وسائل الإعلام تجاهلت ذلك وركزت بدلاً من ذلك على شهادتها في المحكمة.</v>
       </c>
       <c r="D854" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="855">
@@ -12371,7 +12371,7 @@
         <v>لا أحد متأكد متى قرر بيرغمان أن ويغاند لا يهم.</v>
       </c>
       <c r="D855" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="856">
@@ -12385,7 +12385,7 @@
         <v>ينتهي الكتاب بالحجة</v>
       </c>
       <c r="D856" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="857">
@@ -12399,7 +12399,7 @@
         <v>من الضروري أن تستخدم مقدمو الخدمات الإنسانية غير الربحية الممارسات والعقليات الأجنبية من أجل العمل.</v>
       </c>
       <c r="D857" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="858">
@@ -12413,7 +12413,7 @@
         <v>يمكن استبدال أميال المسافر الدائم المحتفظ بها بقيمة نقدية.</v>
       </c>
       <c r="D858" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="859">
@@ -12427,7 +12427,7 @@
         <v>من المؤكد تقريبًا أنه سينتهي به المطاف بالتبادل</v>
       </c>
       <c r="D859" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="860">
@@ -12441,7 +12441,7 @@
         <v>يجب على خدمة البريد الأمريكية (USPS) النظر في أنواع معينة من الابتكارات الخدمية المقترحة.</v>
       </c>
       <c r="D860" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="861">
@@ -12469,7 +12469,7 @@
         <v>بيل برادلي وآل جور هما الوحيدان الآخران المتأثران بجرائم التصويت عبر الإنترنت بجانب الديمقراطيين في أريزونا.</v>
       </c>
       <c r="D862" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="863">
@@ -12483,7 +12483,7 @@
         <v>خيارات الأسهم فكرة جيدة.</v>
       </c>
       <c r="D863" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="864">
@@ -12497,7 +12497,7 @@
         <v>لا أحد متأكد مما هو البرافورا، لكن الأطباء متفائلون بأنه يمكن إزالته.</v>
       </c>
       <c r="D864" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="865">
@@ -12525,7 +12525,7 @@
         <v>أفادت الأكاديمية الوطنية للعلوم عن أولويات البحث لمرضى PM.</v>
       </c>
       <c r="D866" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="867">
@@ -12539,7 +12539,7 @@
         <v>ليس من غير المألوف أن يتسلل مرشدو السياحة إلى المقر الرسمي للحكومة البرتغالية.</v>
       </c>
       <c r="D867" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="868">
@@ -12553,7 +12553,7 @@
         <v>يمكن لليونان أن تستوعب جزر شمال وشرق إيطاليا واغتنمت هذه الفرصة.</v>
       </c>
       <c r="D868" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="869">
@@ -12567,7 +12567,7 @@
         <v>يجب أن لا تؤثر القيود الزمنية الشديدة على جهود تحويل عام 2000 على سرية البيانات الحساسة بأي شكل من الأشكال.</v>
       </c>
       <c r="D869" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="870">
@@ -12581,7 +12581,7 @@
         <v>لقد تحدث فقط عن الرئيس في السر.</v>
       </c>
       <c r="D870" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="871">
@@ -12609,7 +12609,7 @@
         <v>بدت الأشجار رائعة.</v>
       </c>
       <c r="D872" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="873">
@@ -12623,7 +12623,7 @@
         <v>كان الجمهوريون مهتمين في السابق بالإبقاء على غينغريتش.</v>
       </c>
       <c r="D873" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="874">
@@ -12637,7 +12637,7 @@
         <v>يجب أن يعرف شخص ما أين هو.</v>
       </c>
       <c r="D874" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="875">
@@ -12651,7 +12651,7 @@
         <v>أعتقد أنهم أرسلوا رسالة إلى زوجي لمعرفة ما إذا كان زوجك يعمل في TI.</v>
       </c>
       <c r="D875" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="876">
@@ -12665,7 +12665,7 @@
         <v>كم عدد الحصص التي ينتجها ذلك؟</v>
       </c>
       <c r="D876" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="877">
@@ -12679,7 +12679,7 @@
         <v>ليس لديهم أي معرفة بذوق الموضة.</v>
       </c>
       <c r="D877" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="878">
@@ -12693,7 +12693,7 @@
         <v>درو كان يعرف دون كيشوت.</v>
       </c>
       <c r="D878" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="879">
@@ -12707,7 +12707,7 @@
         <v>داعموا ناسا كانوا دائمًا يؤكدون أنها كانت مسألة تمويل.</v>
       </c>
       <c r="D879" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="880">
@@ -12721,7 +12721,7 @@
         <v>قبل درو عرضًا لشراء الحصان.</v>
       </c>
       <c r="D880" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="881">
@@ -12749,7 +12749,7 @@
         <v>يمكن أن يكونوا كذلك جدًا</v>
       </c>
       <c r="D882" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="883">
@@ -12763,7 +12763,7 @@
         <v>من الجيد أن يكون لديك المزيد لأنه قد لا يتم التصويت عليه.</v>
       </c>
       <c r="D883" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="884">
@@ -12777,7 +12777,7 @@
         <v>يُقدَّر أن تكاليف المحاكمة ستتراوح بين 100,000 إلى 300,000 دولار، وهو ما يمكنها تحمّله بسهولة.</v>
       </c>
       <c r="D884" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="885">
@@ -12791,7 +12791,7 @@
         <v>ساندورو حمل جون ليتمكن من الوقوف.</v>
       </c>
       <c r="D885" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="886">
@@ -12805,7 +12805,7 @@
         <v>يتساءل المرء عما إذا كانت خلفيته كفنان سيرك قد أثرت على تصويره الفوتوغرافي.</v>
       </c>
       <c r="D886" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="887">
@@ -12819,7 +12819,7 @@
         <v>سيحدد القرار ما إذا كانت هذه التقديرات قد تتغير أم لا.</v>
       </c>
       <c r="D887" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="888">
@@ -12833,7 +12833,7 @@
         <v>تفرض النخبة الحاكمة سيطرتها على الاقتصاد الوطني.</v>
       </c>
       <c r="D888" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="889">
@@ -12847,7 +12847,7 @@
         <v>كان من المريب جدًا أنها كتبت وصية جديدة في اليوم الذي توفيت فيه.</v>
       </c>
       <c r="D889" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="890">
@@ -12861,7 +12861,7 @@
         <v>يجب أن يكون المقاول مشاركًا</v>
       </c>
       <c r="D890" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="891">
@@ -12875,7 +12875,7 @@
         <v>قد لا يكون لدى الشخص تفضيل بين عرضين.</v>
       </c>
       <c r="D891" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="892">
@@ -12889,7 +12889,7 @@
         <v>تم نشر قاعدة الانبعاثات الجديدة في مايو من عام 1996.</v>
       </c>
       <c r="D892" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="893">
@@ -12903,7 +12903,7 @@
         <v>قد لا ينتهي الأمر كديمقراطية.</v>
       </c>
       <c r="D893" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="894">
@@ -12917,7 +12917,7 @@
         <v>القيمة كبيرة ويجب أن يكون هناك نوع من الخطأ.</v>
       </c>
       <c r="D894" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="895">
@@ -12931,7 +12931,7 @@
         <v>لا بد أنك قد مت في الحرب.</v>
       </c>
       <c r="D895" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="896">
@@ -12945,7 +12945,7 @@
         <v>المؤلف سعيد لأن الفكرة لم تتحقق.</v>
       </c>
       <c r="D896" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="897">
@@ -12959,7 +12959,7 @@
         <v>يجب تركيب أنظمة استقبال متقدمة لمساعدة المزيد من العملاء.</v>
       </c>
       <c r="D897" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="898">
@@ -12973,7 +12973,7 @@
         <v>قد تؤثر السياسة المالية الفيدرالية على الادخار الوطني بطرق عديدة.</v>
       </c>
       <c r="D898" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="899">
@@ -12987,7 +12987,7 @@
         <v>فطيرة كريمة الموز كانت الأفضل ويمكن أخذها إلى المنزل.</v>
       </c>
       <c r="D899" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="900">
@@ -13001,7 +13001,7 @@
         <v>كان يمكن سماع ألبرت وهو يمشي على الأرضية فوق.</v>
       </c>
       <c r="D900" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="901">
@@ -13015,7 +13015,7 @@
         <v>أضأت شمعة الضوء الرجل ليبدو أكثر قوة.</v>
       </c>
       <c r="D901" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="902">
